--- a/rpg.xlsx
+++ b/rpg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jane Wharton\Desktop\gladius-et-scutum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABC726F-260A-4FFE-82DB-67AEAB4BECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9640C7C6-4A19-40E6-B942-6C90D6EDABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{66B7849A-FFD3-4EDB-BD16-FC5287445CF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{66B7849A-FFD3-4EDB-BD16-FC5287445CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities-Fire" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="309">
   <si>
     <t>Weapon</t>
   </si>
@@ -807,12 +807,6 @@
     <t>Spiral Out</t>
   </si>
   <si>
-    <t>Shadow</t>
-  </si>
-  <si>
-    <t>Summon Shadow being to assist in combat. Does 1 Dmg / turn and has 3 HP. Only once per battle.</t>
-  </si>
-  <si>
     <t>Blizzard</t>
   </si>
   <si>
@@ -834,48 +828,21 @@
     <t>Disarming Gust</t>
   </si>
   <si>
-    <t>Disarm 67%</t>
-  </si>
-  <si>
     <t>Compression Wave</t>
   </si>
   <si>
     <t>Heal 5 HP</t>
   </si>
   <si>
-    <t>Pierce 2; Prevents healing</t>
-  </si>
-  <si>
-    <t>Pierce 6; Prevents healing</t>
-  </si>
-  <si>
     <t>Submission</t>
   </si>
   <si>
-    <t>Eva +5 for 3 turns</t>
-  </si>
-  <si>
-    <t>Def +1 for 3 turns</t>
-  </si>
-  <si>
-    <t>Eva +5 for 6 turns</t>
-  </si>
-  <si>
-    <t>Eva +10 for 3 turns</t>
-  </si>
-  <si>
     <t>Lockdown</t>
   </si>
   <si>
-    <t>Prevents enemy movement for 3 turns</t>
-  </si>
-  <si>
     <t>Purify</t>
   </si>
   <si>
-    <t>Clear all status effects on the caster</t>
-  </si>
-  <si>
     <t>Ice Daggers</t>
   </si>
   <si>
@@ -900,20 +867,116 @@
     <t>Acid Rain</t>
   </si>
   <si>
-    <t>Prevents enemy movement for this turn</t>
-  </si>
-  <si>
-    <t>NOTE! If a technique's name is changed, you may have to update the code and the documentation!!!</t>
-  </si>
-  <si>
-    <t>Speed +1 for 3 turns</t>
+    <t>NOTE! If a technique's name is changed, you may have to update the code and the documentation!!! Name is tied to status effects.</t>
+  </si>
+  <si>
+    <t>Prevents enemy movement for 1 action</t>
+  </si>
+  <si>
+    <t>Prevents enemy movement for 3 actions</t>
+  </si>
+  <si>
+    <t>Pierce 2; Prevents enemy healing for 2 actions</t>
+  </si>
+  <si>
+    <t>Pierce 6</t>
+  </si>
+  <si>
+    <t>Prevents enemy movement for 2 actions</t>
+  </si>
+  <si>
+    <t>Prevents enemy healing for 2 actions</t>
+  </si>
+  <si>
+    <t>Hot Lunge</t>
+  </si>
+  <si>
+    <t>Burning Oil</t>
+  </si>
+  <si>
+    <t>Pierce 3</t>
+  </si>
+  <si>
+    <t>Compression Bomb</t>
+  </si>
+  <si>
+    <t>Singing Grasp, Shock</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Static Grip</t>
+  </si>
+  <si>
+    <t>Blue Fire, Shock</t>
+  </si>
+  <si>
+    <t>Vortex</t>
+  </si>
+  <si>
+    <t>Flaming Aura</t>
+  </si>
+  <si>
+    <t>Disarm 33%</t>
+  </si>
+  <si>
+    <t>Speed +1 for 4 turns</t>
+  </si>
+  <si>
+    <t>Spiral Out, Disarming Gust</t>
+  </si>
+  <si>
+    <t>Disarm 75%</t>
+  </si>
+  <si>
+    <t>Third Eye</t>
+  </si>
+  <si>
+    <t>ACC +5 for 6 turns</t>
+  </si>
+  <si>
+    <t>EVA +5 for 3 turns</t>
+  </si>
+  <si>
+    <t>EVA +10 for 3 turns</t>
+  </si>
+  <si>
+    <t>DFN +1 for 3 turns</t>
+  </si>
+  <si>
+    <t>EVA +5 for 6 turns</t>
+  </si>
+  <si>
+    <t>Suppressing Sands</t>
+  </si>
+  <si>
+    <t>Clear all status effects on the target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon Cloud Clone to assist in combat. Does 1 Neutral Dmg / turn with 90% to-hit, and has 3 HP. When you are struck, divert damage to the Hologram instead. Can only cast once per battle. </t>
+  </si>
+  <si>
+    <t>Cloud Clone</t>
+  </si>
+  <si>
+    <t>SHORT DMG +1 for 2 turns</t>
+  </si>
+  <si>
+    <t>Dust Devils</t>
+  </si>
+  <si>
+    <t>WIDE DMG +1 for 2 turns</t>
+  </si>
+  <si>
+    <t>Clear status effects on the caster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,6 +986,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -958,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1008,11 +1078,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1125,18 +1250,6 @@
           <bgColor rgb="FFF9ADAD"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1570,10 +1683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670DB705-CC0B-41F0-BDA0-B9F22D5E773F}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1825,21 +1939,21 @@
       </c>
       <c r="I8" s="3">
         <f>J8*K8*M8</f>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="3">
-        <f>O8/H8</f>
+        <f t="shared" ref="J8:J14" si="0">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <f>O8/L8</f>
+        <f t="shared" ref="K8:K14" si="1">O8/L8</f>
         <v>1</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="16">
         <v>0</v>
@@ -1863,7 +1977,7 @@
         <v>0.15</v>
       </c>
       <c r="U8" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" s="8"/>
     </row>
@@ -1890,22 +2004,22 @@
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I22" si="0">J9*K9*M9</f>
-        <v>0.9</v>
+        <f t="shared" ref="I9:I14" si="2">J9*K9*M9</f>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J9" s="3">
-        <f>O9/H9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <f>O9/L9</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="L9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N9" s="16">
         <v>0</v>
@@ -1926,10 +2040,10 @@
         <v>0.1</v>
       </c>
       <c r="T9" s="9">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="U9" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="8"/>
     </row>
@@ -1956,22 +2070,22 @@
         <v>2</v>
       </c>
       <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="J10" s="3">
-        <f>O10/H10</f>
         <v>0.5</v>
       </c>
       <c r="K10" s="3">
-        <f>O10/L10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
       </c>
       <c r="M10" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N10" s="16">
         <v>1</v>
@@ -1995,22 +2109,22 @@
         <v>0.25</v>
       </c>
       <c r="U10" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -2019,18 +2133,18 @@
         <v>141</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="J11" s="3">
-        <f>O11/H11</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K11" s="3">
-        <f>O11/L11</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="L11" s="3">
@@ -2052,31 +2166,31 @@
         <v>0</v>
       </c>
       <c r="R11" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S11" s="9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="T11" s="9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="U11" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -2085,25 +2199,25 @@
         <v>141</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
         <f t="shared" si="0"/>
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="J12" s="3">
-        <f>O12/H12</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K12" s="3">
-        <f>O12/L12</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="N12" s="16">
         <v>-1</v>
@@ -2121,19 +2235,18 @@
         <v>0</v>
       </c>
       <c r="S12" s="9">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="T12" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="U12" s="16">
-        <v>3</v>
-      </c>
-      <c r="V12" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>184</v>
@@ -2142,7 +2255,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -2151,31 +2264,31 @@
         <v>141</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="0"/>
-        <v>1.05</v>
-      </c>
-      <c r="J13" s="3">
-        <f>O13/H13</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K13" s="3">
-        <f>O13/L13</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="9">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="N13" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="3">
         <v>0</v>
@@ -2190,21 +2303,24 @@
         <v>0</v>
       </c>
       <c r="T13" s="9">
-        <v>0</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>78</v>
+        <v>0.5</v>
+      </c>
+      <c r="U13" s="16">
+        <v>3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
@@ -2216,40 +2332,40 @@
         <v>141</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="J14" s="3">
-        <f>O14/H14</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="K14" s="3">
-        <f>O14/L14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="L14" s="3">
         <v>2</v>
       </c>
       <c r="M14" s="9">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="N14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R14" s="9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="S14" s="9">
         <v>0</v>
@@ -2258,15 +2374,12 @@
         <v>0.5</v>
       </c>
       <c r="U14" s="16">
-        <v>2</v>
-      </c>
-      <c r="V14" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>184</v>
@@ -2274,24 +2387,21 @@
       <c r="C15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D15" t="s">
-        <v>170</v>
-      </c>
       <c r="E15" s="3">
         <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
+        <f>J15*K15*M15</f>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J15" s="3">
         <f>O15/H15</f>
@@ -2299,19 +2409,19 @@
       </c>
       <c r="K15" s="3">
         <f>O15/L15</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="3">
         <v>2</v>
       </c>
       <c r="M15" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N15" s="16">
         <v>-1</v>
       </c>
       <c r="O15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -2320,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
         <v>0.5</v>
-      </c>
-      <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9">
-        <v>0.33</v>
       </c>
       <c r="U15" s="16">
         <v>2</v>
@@ -2335,88 +2445,90 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E16" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f>J16*K16*M16</f>
+        <v>0.39999999999999997</v>
       </c>
       <c r="J16" s="3">
         <f>O16/H16</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K16" s="3">
         <f>O16/L16</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" s="9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N16" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="3">
         <v>2</v>
       </c>
       <c r="P16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="9">
         <v>0</v>
       </c>
       <c r="R16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V16" s="8"/>
+        <v>0.33</v>
+      </c>
+      <c r="U16" s="16">
+        <v>4</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="E17" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -2425,67 +2537,67 @@
         <v>141</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>J17*K17*M17</f>
+        <v>0.6333333333333333</v>
       </c>
       <c r="J17" s="3">
         <f>O17/H17</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
         <f>O17/L17</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
         <v>0.75</v>
       </c>
-      <c r="N17" s="16">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
       <c r="T17" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="U17" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -2497,34 +2609,34 @@
         <v>3</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
+        <f>J18*K18*M18</f>
+        <v>1.7333333333333334</v>
       </c>
       <c r="J18" s="3">
         <f>O18/H18</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K18" s="3">
         <f>O18/L18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" s="9">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="N18" s="16">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R18" s="9">
         <v>0</v>
@@ -2533,25 +2645,25 @@
         <v>0</v>
       </c>
       <c r="T18" s="9">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="U18" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E19" s="3">
         <v>6</v>
@@ -2566,8 +2678,8 @@
         <v>4</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0687499999999999</v>
+        <f>J19*K19*M19</f>
+        <v>0.71249999999999991</v>
       </c>
       <c r="J19" s="3">
         <f>O19/H19</f>
@@ -2575,16 +2687,16 @@
       </c>
       <c r="K19" s="3">
         <f>O19/L19</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="9">
         <v>0.95</v>
       </c>
       <c r="N19" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="3">
         <v>3</v>
@@ -2593,50 +2705,50 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
       </c>
       <c r="S19" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T19" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="U19" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" s="8"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="E20" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5833333333333333</v>
+        <f>J20*K20*M20</f>
+        <v>1.35</v>
       </c>
       <c r="J20" s="3">
         <f>O20/H20</f>
@@ -2644,19 +2756,19 @@
       </c>
       <c r="K20" s="3">
         <f>O20/L20</f>
-        <v>1.6666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="L20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N20" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -2671,69 +2783,64 @@
         <v>0</v>
       </c>
       <c r="T20" s="9">
-        <v>0</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>125</v>
-      </c>
+        <v>0.67</v>
+      </c>
+      <c r="U20" s="16">
+        <v>3</v>
+      </c>
+      <c r="V20" s="8"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>286</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="E21" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7708333333333335</v>
+        <f>J21*K21*M21</f>
+        <v>1.2666666666666666</v>
       </c>
       <c r="J21" s="3">
         <f>O21/H21</f>
-        <v>1.25</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K21" s="3">
         <f>O21/L21</f>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="L21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" s="9">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="N21" s="16">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <v>0</v>
@@ -2747,163 +2854,471 @@
       <c r="U21" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V21" s="8"/>
+      <c r="V21" s="8" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>290</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="E22" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2666666666666666</v>
+        <f>J22*K22*M22</f>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <f>O22/H22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <f>O22/L22</f>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22" s="9">
+        <v>2</v>
+      </c>
+      <c r="N22" s="16">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <f>J23*K23*M23</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J23" s="3">
+        <f>O23/H23</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K23" s="3">
+        <f>O23/L23</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>1</v>
+      </c>
+      <c r="U23" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <f>J24*K24*M24</f>
+        <v>2.16</v>
+      </c>
+      <c r="J24" s="3">
+        <f>O24/H24</f>
+        <v>1.2</v>
+      </c>
+      <c r="K24" s="3">
+        <f>O24/L24</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N24" s="16">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>6</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="3">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4</v>
+      </c>
+      <c r="I25" s="3">
+        <f>J25*K25*M25</f>
+        <v>3.2666666666666675</v>
+      </c>
+      <c r="J25" s="3">
+        <f>O25/H25</f>
+        <v>1.75</v>
+      </c>
+      <c r="K25" s="3">
+        <f>O25/L25</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="L25" s="3">
+        <v>3</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N25" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O25" s="3">
+        <v>7</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
+        <f>J26*K26*M26</f>
+        <v>1.8</v>
+      </c>
+      <c r="J26" s="3">
+        <f>O26/H26</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <f>O26/L26</f>
+        <v>2</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N26" s="16">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U26" s="16">
+        <v>4</v>
+      </c>
+      <c r="V26" s="8"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <f>J27*K27*M27</f>
+        <v>1.9</v>
+      </c>
+      <c r="J27" s="3">
+        <f>O27/H27</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <f>O27/L27</f>
+        <v>2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2</v>
+      </c>
+      <c r="M27" s="9">
         <v>0.95</v>
       </c>
-      <c r="N22" s="16">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N27" s="16">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U22" s="16">
-        <v>3</v>
-      </c>
-      <c r="V22" s="8"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="9"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="9"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="9"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="9"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="9"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="9"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="9"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="9"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="U30" s="17"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -2924,12 +3339,9 @@
     <row r="37" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K38" s="3"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD909090">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2943,7 +3355,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3197,21 +3609,21 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" ref="I8:I19" si="0">J8*K8*M8</f>
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="J8" s="3">
-        <f>O8/H8</f>
+        <f t="shared" ref="J8:J27" si="1">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" ref="K8" si="1">O8/L8</f>
+        <f t="shared" ref="K8" si="2">O8/L8</f>
         <v>1</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N8" s="16">
         <v>0</v>
@@ -3265,11 +3677,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <f>O9/H9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" ref="K9" si="2">O9/L9</f>
+        <f t="shared" ref="K9" si="3">O9/L9</f>
         <v>0</v>
       </c>
       <c r="L9" s="3">
@@ -3303,7 +3715,7 @@
         <v>78</v>
       </c>
       <c r="V9" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -3330,21 +3742,21 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="J10" s="3">
-        <f>O10/H10</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" ref="K10" si="3">O10/L10</f>
+        <f t="shared" ref="K10" si="4">O10/L10</f>
         <v>1</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
       </c>
       <c r="M10" s="9">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="N10" s="16">
         <v>0</v>
@@ -3395,21 +3807,21 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J11" s="3">
-        <f>O11/H11</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" ref="K11:K13" si="4">O11/L11</f>
+        <f t="shared" ref="K11" si="5">O11/L11</f>
         <v>0.5</v>
       </c>
       <c r="L11" s="3">
         <v>2</v>
       </c>
       <c r="M11" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N11" s="16">
         <v>-2</v>
@@ -3460,21 +3872,21 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" ref="K12:K14" si="6">O12/L12</f>
         <v>0.5</v>
       </c>
-      <c r="J12" s="3">
-        <f>O12/H12</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" ref="K12:K14" si="5">O12/L12</f>
-        <v>0.5</v>
-      </c>
       <c r="L12" s="3">
         <v>2</v>
       </c>
       <c r="M12" s="9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="N12" s="16">
         <v>-3</v>
@@ -3525,24 +3937,24 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="J13" s="3">
-        <f>O13/H13</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="L13" s="3">
         <v>2</v>
       </c>
       <c r="M13" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="N13" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3">
         <v>1</v>
@@ -3564,6 +3976,9 @@
       </c>
       <c r="U13" s="16" t="s">
         <v>78</v>
+      </c>
+      <c r="V13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -3577,7 +3992,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -3590,21 +4005,21 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="J14" s="3">
-        <f>O14/H14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L14" s="3">
         <v>1</v>
       </c>
       <c r="M14" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N14" s="16">
         <v>-1</v>
@@ -3661,21 +4076,21 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J15" s="3">
-        <f>O15/H15</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" ref="K15:K19" si="6">O15/L15</f>
+        <f t="shared" ref="K15:K19" si="7">O15/L15</f>
         <v>1</v>
       </c>
       <c r="L15" s="3">
         <v>2</v>
       </c>
       <c r="M15" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N15" s="16">
         <v>0</v>
@@ -3726,27 +4141,27 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>1.5111111111111111</v>
+        <v>2.2222222222222228</v>
       </c>
       <c r="J16" s="3">
-        <f>O16/H16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="6"/>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="L16" s="3">
         <v>3</v>
       </c>
       <c r="M16" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16" s="3">
         <v>0</v>
@@ -3794,21 +4209,21 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="J17" s="3">
-        <f>O17/H17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L17" s="3">
         <v>2</v>
       </c>
       <c r="M17" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N17" s="16">
         <v>0</v>
@@ -3865,21 +4280,21 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J18" s="3">
-        <f>O18/H18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
       </c>
       <c r="M18" s="9">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="N18" s="16">
         <v>1</v>
@@ -3933,27 +4348,27 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3">
-        <f>O19/H19</f>
-        <v>1.5</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="L19" s="3">
         <v>2</v>
       </c>
       <c r="M19" s="9">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="N19" s="16">
         <v>1</v>
       </c>
       <c r="O19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" s="3">
         <v>0</v>
@@ -4000,25 +4415,25 @@
         <v>141</v>
       </c>
       <c r="H20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20:I25" si="7">J20*K20*M20</f>
-        <v>0.42499999999999999</v>
+        <f t="shared" ref="I20:I25" si="8">J20*K20*M20</f>
+        <v>0.46666666666666662</v>
       </c>
       <c r="J20" s="3">
-        <f>O20/H20</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:K25" si="8">O20/L20</f>
+        <f t="shared" ref="K20:K25" si="9">O20/L20</f>
         <v>1</v>
       </c>
       <c r="L20" s="3">
         <v>2</v>
       </c>
       <c r="M20" s="9">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="N20" s="16">
         <v>0</v>
@@ -4045,7 +4460,7 @@
         <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -4074,25 +4489,25 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="7"/>
-        <v>0.95</v>
+        <f t="shared" si="8"/>
+        <v>0.9</v>
       </c>
       <c r="J21" s="3">
-        <f>O21/H21</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L21" s="3">
         <v>3</v>
       </c>
       <c r="M21" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N21" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" s="3">
         <v>3</v>
@@ -4104,7 +4519,7 @@
         <v>0.1</v>
       </c>
       <c r="R21" s="9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S21" s="9">
         <v>0</v>
@@ -4142,28 +4557,28 @@
         <v>5</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="7"/>
-        <v>2.04</v>
+        <f t="shared" si="8"/>
+        <v>2.6133333333333333</v>
       </c>
       <c r="J22" s="3">
-        <f>O22/H22</f>
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>1.4</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L22" s="3">
         <v>3</v>
       </c>
       <c r="M22" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N22" s="16">
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -4210,28 +4625,28 @@
         <v>4</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="7"/>
-        <v>1.8750000000000002</v>
+        <f t="shared" si="8"/>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J23" s="3">
-        <f>O23/H23</f>
-        <v>1.25</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="L23" s="3">
         <v>3</v>
       </c>
       <c r="M23" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N23" s="16">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -4257,7 +4672,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>183</v>
@@ -4266,7 +4681,7 @@
         <v>135</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E24" s="3">
         <v>12</v>
@@ -4281,28 +4696,28 @@
         <v>3</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="7"/>
-        <v>1.9500000000000002</v>
+        <f t="shared" si="8"/>
+        <v>3.1999999999999997</v>
       </c>
       <c r="J24" s="3">
-        <f>O24/H24</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
       </c>
       <c r="M24" s="9">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="N24" s="16">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -4317,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="T24" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="U24" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="V24" t="s">
         <v>124</v>
@@ -4328,7 +4743,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>183</v>
@@ -4352,28 +4767,28 @@
         <v>3</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="7"/>
-        <v>0.6</v>
+        <f t="shared" si="8"/>
+        <v>2.1333333333333333</v>
       </c>
       <c r="J25" s="3">
-        <f>O25/H25</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="L25" s="3">
         <v>2</v>
       </c>
       <c r="M25" s="9">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N25" s="16">
         <v>-1</v>
       </c>
       <c r="O25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P25" s="3">
         <v>0</v>
@@ -4394,12 +4809,12 @@
         <v>78</v>
       </c>
       <c r="V25" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>183</v>
@@ -4408,7 +4823,7 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E26" s="3">
         <v>16</v>
@@ -4420,31 +4835,31 @@
         <v>141</v>
       </c>
       <c r="H26" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" ref="I26" si="9">J26*K26*M26</f>
-        <v>2.6666666666666665</v>
+        <f t="shared" ref="I26:I27" si="10">J26*K26*M26</f>
+        <v>4.0500000000000007</v>
       </c>
       <c r="J26" s="3">
-        <f>O26/H26</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.8</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" ref="K26" si="10">O26/L26</f>
-        <v>2.6666666666666665</v>
+        <f t="shared" ref="K26:K27" si="11">O26/L26</f>
+        <v>3</v>
       </c>
       <c r="L26" s="3">
         <v>3</v>
       </c>
       <c r="M26" s="9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N26" s="16">
         <v>-3</v>
       </c>
       <c r="O26" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P26" s="3">
         <v>-1</v>
@@ -4463,6 +4878,74 @@
       </c>
       <c r="U26" s="16">
         <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="10"/>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="N27" s="16">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -4478,7 +4961,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD24 A28:XFD909090 V25:XFD27 A26:U27 A25:D25">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4488,10 +4971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7DBCF5-5AAC-4F6F-A5D2-F2CF7C627D4D}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4499,7 +4982,7 @@
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="4.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
@@ -4654,7 +5137,7 @@
     </row>
     <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4680,7 +5163,7 @@
       <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4751,21 +5234,21 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" ref="I8:I10" si="0">J8*K8*M8</f>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="3">
-        <f>O8/H8</f>
+        <f t="shared" ref="J8:J21" si="1">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <f>O8/L8</f>
+        <f t="shared" ref="K8:K21" si="2">O8/L8</f>
         <v>1</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="16">
         <v>0</v>
@@ -4789,7 +5272,7 @@
         <v>0.33</v>
       </c>
       <c r="U8" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -4816,21 +5299,21 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="J9" s="3">
-        <f>O9/H9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <f>O9/L9</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N9" s="16">
         <v>0</v>
@@ -4865,7 +5348,7 @@
         <v>182</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
@@ -4881,21 +5364,21 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J10" s="3">
-        <f>O10/H10</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="K10" s="3">
-        <f>O10/L10</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N10" s="16">
         <v>0</v>
@@ -4922,12 +5405,12 @@
         <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>182</v>
@@ -4949,21 +5432,21 @@
       </c>
       <c r="I11" s="3">
         <f>J11*K11*M11</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J11" s="3">
-        <f>O11/H11</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <f>O11/L11</f>
-        <v>0.5</v>
-      </c>
       <c r="L11" s="3">
         <v>2</v>
       </c>
       <c r="M11" s="9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="N11" s="16">
         <v>1</v>
@@ -4987,7 +5470,7 @@
         <v>0.5</v>
       </c>
       <c r="U11" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -5013,22 +5496,22 @@
         <v>2</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" ref="I12:I19" si="1">J12*K12*M12</f>
-        <v>0.75</v>
+        <f t="shared" ref="I12:I19" si="3">J12*K12*M12</f>
+        <v>0.7</v>
       </c>
       <c r="J12" s="3">
-        <f>O12/H12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K12" s="3">
-        <f>O12/L12</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L12" s="3">
         <v>2</v>
       </c>
       <c r="M12" s="9">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="N12" s="16">
         <v>0</v>
@@ -5052,7 +5535,7 @@
         <v>0.67</v>
       </c>
       <c r="U12" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -5066,7 +5549,7 @@
         <v>135</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -5075,25 +5558,25 @@
         <v>141</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-      <c r="J13" s="3">
-        <f>O13/H13</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K13" s="3">
-        <f>O13/L13</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="L13" s="3">
         <v>2</v>
       </c>
       <c r="M13" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N13" s="16">
         <v>3</v>
@@ -5120,7 +5603,7 @@
         <v>78</v>
       </c>
       <c r="V13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -5146,22 +5629,22 @@
         <v>3</v>
       </c>
       <c r="I14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="J14" s="3">
-        <f>O14/H14</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K14" s="3">
-        <f>O14/L14</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L14" s="3">
         <v>2</v>
       </c>
       <c r="M14" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N14" s="16">
         <v>0</v>
@@ -5185,10 +5668,10 @@
         <v>0.5</v>
       </c>
       <c r="U14" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -5217,37 +5700,37 @@
         <v>2</v>
       </c>
       <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="J15" s="3">
-        <f>O15/H15</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3">
-        <f>O15/L15</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" s="9">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="N15" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R15" s="9">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="S15" s="9">
         <v>0.67</v>
@@ -5261,7 +5744,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>182</v>
@@ -5285,15 +5768,15 @@
         <v>3</v>
       </c>
       <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="3">
-        <f>O16/H16</f>
-        <v>0</v>
-      </c>
       <c r="K16" s="3">
-        <f>O16/L16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="3">
@@ -5327,12 +5810,12 @@
         <v>78</v>
       </c>
       <c r="V16" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>182</v>
@@ -5356,22 +5839,22 @@
         <v>2</v>
       </c>
       <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="J17" s="3">
-        <f>O17/H17</f>
         <v>0.5</v>
       </c>
       <c r="K17" s="3">
-        <f>O17/L17</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L17" s="3">
         <v>1</v>
       </c>
       <c r="M17" s="9">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="N17" s="16">
         <v>0</v>
@@ -5395,7 +5878,7 @@
         <v>0.75</v>
       </c>
       <c r="U17" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="s">
         <v>124</v>
@@ -5403,7 +5886,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>182</v>
@@ -5427,15 +5910,15 @@
         <v>3</v>
       </c>
       <c r="I18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="J18" s="3">
-        <f>O18/H18</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K18" s="3">
-        <f>O18/L18</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L18" s="3">
@@ -5469,7 +5952,7 @@
         <v>78</v>
       </c>
       <c r="V18" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -5483,7 +5966,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E19" s="3">
         <v>8</v>
@@ -5498,22 +5981,22 @@
         <v>3</v>
       </c>
       <c r="I19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>0.73333333333333339</v>
-      </c>
-      <c r="J19" s="3">
-        <f>O19/H19</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K19" s="3">
-        <f>O19/L19</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L19" s="3">
         <v>2</v>
       </c>
       <c r="M19" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="N19" s="16">
         <v>2</v>
@@ -5537,12 +6020,12 @@
         <v>0.67</v>
       </c>
       <c r="U19" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>182</v>
@@ -5566,28 +6049,28 @@
         <v>4</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="2">J20*K20*M20</f>
-        <v>0.4</v>
+        <f t="shared" ref="I20:I21" si="4">J20*K20*M20</f>
+        <v>0.84375</v>
       </c>
       <c r="J20" s="3">
-        <f>O20/H20</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
       <c r="K20" s="3">
-        <f>O20/L20</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
       <c r="L20" s="3">
         <v>2</v>
       </c>
       <c r="M20" s="9">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="N20" s="16">
         <v>1</v>
       </c>
       <c r="O20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" s="16">
         <v>1</v>
@@ -5605,86 +6088,369 @@
         <v>0.67</v>
       </c>
       <c r="U20" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V20" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>268</v>
+        <v>135</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="E21" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="4"/>
+        <v>1.8666666666666665</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="N21" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O21" s="3">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="U21" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="3">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:I24" si="5">J22*K22*M22</f>
+        <v>2.4</v>
+      </c>
+      <c r="J22" s="3">
+        <f>O22/H22</f>
+        <v>1.2</v>
+      </c>
+      <c r="K22" s="3">
+        <f>O22/L22</f>
+        <v>2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3</v>
+      </c>
+      <c r="M22" s="9">
+        <v>1</v>
+      </c>
+      <c r="N22" s="16">
+        <v>-6</v>
+      </c>
+      <c r="O22" s="3">
         <v>6</v>
       </c>
-      <c r="I21" s="3">
-        <f t="shared" ref="I21" si="3">J21*K21*M21</f>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U22" s="16">
+        <v>5</v>
+      </c>
+      <c r="V22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
-      <c r="J21" s="3">
-        <f>O21/H21</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <f>O21/L21</f>
-        <v>2</v>
-      </c>
-      <c r="L21" s="3">
-        <v>3</v>
-      </c>
-      <c r="M21" s="9">
+      <c r="J23" s="3">
+        <f>O23/H23</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <f>O23/L23</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2</v>
+      </c>
+      <c r="M23" s="9">
         <v>0.95</v>
       </c>
-      <c r="N21" s="16">
-        <v>-6</v>
-      </c>
-      <c r="O21" s="3">
-        <v>6</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0</v>
-      </c>
-      <c r="R21" s="9">
-        <v>0</v>
-      </c>
-      <c r="S21" s="9">
-        <v>0</v>
-      </c>
-      <c r="T21" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U21" s="16">
-        <v>3</v>
-      </c>
-      <c r="V21" t="s">
-        <v>267</v>
+      <c r="N23" s="16">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U23" s="16">
+        <v>3</v>
+      </c>
+      <c r="V23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <f>O24/H24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <f>O24/L24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9">
+        <v>2</v>
+      </c>
+      <c r="N24" s="16">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4</v>
+      </c>
+      <c r="I25" s="3">
+        <f>J25*K25*M25</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <f>O25/H25</f>
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="3">
+        <f>O25/L25</f>
+        <v>2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1</v>
+      </c>
+      <c r="N25" s="16">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>2</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V25" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD909090">
-    <cfRule type="expression" dxfId="17" priority="7">
+  <conditionalFormatting sqref="A1:XFD20 A24:XFD24 W21:XFD23 A22:V23 A21 A26:XFD909090 A25:D25 W25:XFD25">
+    <cfRule type="expression" dxfId="21" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:V25">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5697,8 +6463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C332C6-0F15-4384-8259-DE52E9979FA5}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5951,10 +6717,10 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" ref="I8:I14" si="0">J8*K8*M8</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="J8" s="3">
-        <f>O8/H8</f>
+        <f t="shared" ref="J8:J25" si="1">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
@@ -5965,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="9">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="N8" s="16">
         <v>0</v>
@@ -5989,7 +6755,7 @@
         <v>0.17</v>
       </c>
       <c r="U8" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -6016,10 +6782,10 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J9" s="3">
-        <f>O9/H9</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="K9" s="3">
@@ -6030,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N9" s="16">
         <v>0</v>
@@ -6081,10 +6847,10 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J10" s="3">
-        <f>O10/H10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K10" s="3">
@@ -6095,7 +6861,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N10" s="16">
         <v>0</v>
@@ -6146,10 +6912,10 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="J11" s="3">
-        <f>O11/H11</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="K11" s="3">
@@ -6160,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N11" s="16">
         <v>-1</v>
@@ -6187,7 +6953,7 @@
         <v>78</v>
       </c>
       <c r="V11" t="s">
-        <v>193</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -6217,11 +6983,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <f>O12/H12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" ref="K12:K14" si="1">O12/L12</f>
+        <f t="shared" ref="K12:K14" si="2">O12/L12</f>
         <v>0</v>
       </c>
       <c r="L12" s="3">
@@ -6255,12 +7021,12 @@
         <v>78</v>
       </c>
       <c r="V12" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>181</v>
@@ -6282,21 +7048,21 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J13" s="3">
-        <f>O13/H13</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
       <c r="L13" s="3">
         <v>2</v>
       </c>
       <c r="M13" s="9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="N13" s="16">
         <v>1</v>
@@ -6328,7 +7094,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>181</v>
@@ -6350,21 +7116,21 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="J14" s="3">
-        <f>O14/H14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L14" s="3">
         <v>2</v>
       </c>
       <c r="M14" s="9">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="N14" s="16">
         <v>-1</v>
@@ -6417,28 +7183,28 @@
         <v>2</v>
       </c>
       <c r="I15" s="3">
-        <f>J15*K15*M15</f>
-        <v>0.6333333333333333</v>
+        <f t="shared" ref="I15:I25" si="3">J15*K15*M15</f>
+        <v>1.35</v>
       </c>
       <c r="J15" s="3">
-        <f>O15/H15</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="K15" s="3">
         <f>O15/L15</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
         <v>3</v>
       </c>
       <c r="M15" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N15" s="16">
         <v>2</v>
       </c>
       <c r="O15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>1</v>
@@ -6485,28 +7251,28 @@
         <v>3</v>
       </c>
       <c r="I16" s="3">
-        <f>J16*K16*M16</f>
-        <v>0.56666666666666665</v>
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J16" s="3">
-        <f>O16/H16</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
         <f>O16/L16</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L16" s="3">
         <v>2</v>
       </c>
       <c r="M16" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N16" s="16">
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" s="3">
         <v>0</v>
@@ -6556,34 +7322,34 @@
         <v>3</v>
       </c>
       <c r="I17" s="3">
-        <f>J17*K17*M17</f>
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>0.39999999999999997</v>
       </c>
       <c r="J17" s="3">
-        <f>O17/H17</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K17" s="3">
         <f>O17/L17</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L17" s="3">
         <v>3</v>
       </c>
       <c r="M17" s="9">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="N17" s="16">
         <v>1</v>
       </c>
       <c r="O17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R17" s="9">
         <v>0</v>
@@ -6612,7 +7378,7 @@
         <v>189</v>
       </c>
       <c r="E18" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -6624,11 +7390,11 @@
         <v>3</v>
       </c>
       <c r="I18" s="3">
-        <f>J18*K18*M18</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f>O18/H18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="3">
@@ -6666,7 +7432,7 @@
         <v>78</v>
       </c>
       <c r="V18" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -6692,28 +7458,28 @@
         <v>3</v>
       </c>
       <c r="I19" s="3">
-        <f>J19*K19*M19</f>
-        <v>0.85</v>
+        <f t="shared" si="3"/>
+        <v>1.4222222222222223</v>
       </c>
       <c r="J19" s="3">
-        <f>O19/H19</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" ref="K19" si="2">O19/L19</f>
-        <v>1</v>
+        <f t="shared" ref="K19" si="4">O19/L19</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L19" s="3">
         <v>3</v>
       </c>
       <c r="M19" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N19" s="16">
         <v>1</v>
       </c>
       <c r="O19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" s="3">
         <v>0</v>
@@ -6731,7 +7497,7 @@
         <v>0.5</v>
       </c>
       <c r="U19" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -6757,15 +7523,15 @@
         <v>3</v>
       </c>
       <c r="I20" s="3">
-        <f>J20*K20*M20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <f>O20/H20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <f>O20/L20</f>
+        <f t="shared" ref="K20:K25" si="5">O20/L20</f>
         <v>0</v>
       </c>
       <c r="L20" s="3">
@@ -6828,22 +7594,22 @@
         <v>4</v>
       </c>
       <c r="I21" s="3">
-        <f>J21*K21*M21</f>
-        <v>1.8750000000000002</v>
+        <f t="shared" si="3"/>
+        <v>1.666666666666667</v>
       </c>
       <c r="J21" s="3">
-        <f>O21/H21</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="K21" s="3">
-        <f>O21/L21</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="L21" s="3">
         <v>3</v>
       </c>
       <c r="M21" s="9">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N21" s="16">
         <v>0</v>
@@ -6867,7 +7633,7 @@
         <v>0.25</v>
       </c>
       <c r="U21" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -6893,25 +7659,25 @@
         <v>141</v>
       </c>
       <c r="H22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="3">
-        <f>J22*K22*M22</f>
-        <v>1.2800000000000002</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="J22" s="3">
-        <f>O22/H22</f>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K22" s="3">
-        <f>O22/L22</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L22" s="3">
         <v>2</v>
       </c>
       <c r="M22" s="9">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="N22" s="16">
         <v>0</v>
@@ -6935,7 +7701,7 @@
         <v>0.75</v>
       </c>
       <c r="U22" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V22" t="s">
         <v>125</v>
@@ -6967,15 +7733,15 @@
         <v>4</v>
       </c>
       <c r="I23" s="3">
-        <f>J23*K23*M23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <f>O23/H23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <f>O23/L23</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L23" s="3">
@@ -7009,7 +7775,7 @@
         <v>78</v>
       </c>
       <c r="V23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -7035,15 +7801,15 @@
         <v>1</v>
       </c>
       <c r="I24" s="3">
-        <f>J24*K24*M24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f>O24/H24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f>O24/L24</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L24" s="3">
@@ -7082,7 +7848,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>181</v>
@@ -7106,15 +7872,15 @@
         <v>3</v>
       </c>
       <c r="I25" s="3">
-        <f>J25*K25*M25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f>O25/H25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <f>O25/L25</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L25" s="3">
@@ -7124,7 +7890,7 @@
         <v>2</v>
       </c>
       <c r="N25" s="16">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="O25" s="3">
         <v>0</v>
@@ -7148,7 +7914,7 @@
         <v>78</v>
       </c>
       <c r="V25" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -7170,7 +7936,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD999999">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7184,7 +7950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7442,15 +8208,15 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" ref="I8" si="0">J8*K8</f>
-        <v>3</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="J8" s="3">
         <f>O8/H8</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K8" s="3">
         <f>O8/L8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>3</v>
@@ -7462,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -7555,7 +8321,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>231</v>
@@ -7575,7 +8341,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>231</v>
@@ -7595,7 +8361,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>232</v>
@@ -7615,7 +8381,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>232</v>
@@ -7635,7 +8401,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>234</v>
@@ -7675,7 +8441,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>235</v>
@@ -7740,7 +8506,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>235</v>
@@ -7763,46 +8529,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A10:B10 C15:C19 A16:B16 A1:C8 A20:C99999 C9:C11 A18:B20 H1:XFD4 H5:R5 T5:XFD5 A11 A12:C14 A15 A17 H6:XFD99999">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:G909090">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F1014 F1:F25">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7815,7 +8581,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8108,7 +8874,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9989,19 +10755,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10157,18 +10923,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10190,14 +10956,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F85B83-ED46-419F-858C-FAA5122D2FAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47B830A9-FEBC-43E4-93BC-65E9268F9200}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -10211,4 +10969,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F85B83-ED46-419F-858C-FAA5122D2FAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rpg.xlsx
+++ b/rpg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jane Wharton\Desktop\gladius-et-scutum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9640C7C6-4A19-40E6-B942-6C90D6EDABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C12420A-AA2C-4CF1-99B3-FFB51DF02760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{66B7849A-FFD3-4EDB-BD16-FC5287445CF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66B7849A-FFD3-4EDB-BD16-FC5287445CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities-Fire" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="323">
   <si>
     <t>Weapon</t>
   </si>
@@ -786,9 +786,6 @@
     <t>Armorslayer</t>
   </si>
   <si>
-    <t>Pierce 3; Only works if enemy has &gt;= 2 Defense</t>
-  </si>
-  <si>
     <t>J&amp;S,H&amp;S,S&amp;D,A&amp;S</t>
   </si>
   <si>
@@ -831,9 +828,6 @@
     <t>Compression Wave</t>
   </si>
   <si>
-    <t>Heal 5 HP</t>
-  </si>
-  <si>
     <t>Submission</t>
   </si>
   <si>
@@ -870,9 +864,6 @@
     <t>NOTE! If a technique's name is changed, you may have to update the code and the documentation!!! Name is tied to status effects.</t>
   </si>
   <si>
-    <t>Prevents enemy movement for 1 action</t>
-  </si>
-  <si>
     <t>Prevents enemy movement for 3 actions</t>
   </si>
   <si>
@@ -888,9 +879,6 @@
     <t>Prevents enemy healing for 2 actions</t>
   </si>
   <si>
-    <t>Hot Lunge</t>
-  </si>
-  <si>
     <t>Burning Oil</t>
   </si>
   <si>
@@ -900,18 +888,12 @@
     <t>Compression Bomb</t>
   </si>
   <si>
-    <t>Singing Grasp, Shock</t>
-  </si>
-  <si>
     <t>Shock</t>
   </si>
   <si>
     <t>Static Grip</t>
   </si>
   <si>
-    <t>Blue Fire, Shock</t>
-  </si>
-  <si>
     <t>Vortex</t>
   </si>
   <si>
@@ -970,6 +952,66 @@
   </si>
   <si>
     <t>Clear status effects on the caster</t>
+  </si>
+  <si>
+    <t>Pressure Beam</t>
+  </si>
+  <si>
+    <t>Vibrohammer</t>
+  </si>
+  <si>
+    <t>Frostbite</t>
+  </si>
+  <si>
+    <t>50% chance target is Burning for 6 actions</t>
+  </si>
+  <si>
+    <t>50% chance target is Stunned for 3 actions</t>
+  </si>
+  <si>
+    <t>33% chance target is Softened for 3 actions</t>
+  </si>
+  <si>
+    <t>90% chance target is Hypoxic for 3 actions</t>
+  </si>
+  <si>
+    <t>Overdrive</t>
+  </si>
+  <si>
+    <t>Rocket Punch</t>
+  </si>
+  <si>
+    <t>Downpour</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A grappling move that temporarily disables motor neurons in the opponent's peripheral nervous system, making it impossible for them to move.</t>
+  </si>
+  <si>
+    <t>This technique lights a fire deep inside your opponent's internal systems, burning them from the inside out and consuming the oxygen directly from their cells.</t>
+  </si>
+  <si>
+    <t>Pierce 3; Only works if enemy has &gt;= 1 Defense</t>
+  </si>
+  <si>
+    <t>25% chance target is Stunned for 2 actions</t>
+  </si>
+  <si>
+    <t>33% chance target is Burning for 6 actions</t>
+  </si>
+  <si>
+    <t>Speed +1 for 2 turns</t>
+  </si>
+  <si>
+    <t>Cannon Calves</t>
+  </si>
+  <si>
+    <t>Heal 5 HP; can only use once per turn</t>
+  </si>
+  <si>
+    <t>Pierce 1 while Short</t>
   </si>
 </sst>
 </file>
@@ -1081,63 +1123,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <b/>
@@ -1250,6 +1244,30 @@
           <bgColor rgb="FFF9ADAD"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1683,11 +1701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670DB705-CC0B-41F0-BDA0-B9F22D5E773F}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,9 +1724,10 @@
     <col min="17" max="20" width="8.21875" style="9" customWidth="1"/>
     <col min="21" max="21" width="8.21875" style="16" customWidth="1"/>
     <col min="22" max="22" width="34.44140625" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1775,8 +1794,11 @@
       <c r="V1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="E2" s="5"/>
@@ -1798,7 +1820,7 @@
       <c r="U2" s="14"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1821,7 +1843,7 @@
       <c r="U3" s="14"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="E4" s="5"/>
@@ -1845,7 +1867,7 @@
       <c r="U4" s="15"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="E5" s="5"/>
@@ -1869,7 +1891,7 @@
       <c r="U5" s="15"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="E6" s="5"/>
@@ -1893,7 +1915,7 @@
       </c>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="E7" s="5"/>
@@ -1915,7 +1937,7 @@
       <c r="U7" s="14"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -1942,11 +1964,11 @@
         <v>0.8</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J14" si="0">O8/H8</f>
+        <f t="shared" ref="J8:J15" si="0">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" ref="K8:K14" si="1">O8/L8</f>
+        <f t="shared" ref="K8:K15" si="1">O8/L8</f>
         <v>1</v>
       </c>
       <c r="L8" s="3">
@@ -1974,14 +1996,14 @@
         <v>0</v>
       </c>
       <c r="T8" s="9">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="U8" s="16">
         <v>2</v>
       </c>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -2004,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I14" si="2">J9*K9*M9</f>
+        <f t="shared" ref="I9:I15" si="2">J9*K9*M9</f>
         <v>0.42499999999999999</v>
       </c>
       <c r="J9" s="3">
@@ -2047,7 +2069,7 @@
       </c>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -2113,7 +2135,7 @@
       </c>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>190</v>
       </c>
@@ -2163,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="R11" s="9">
         <v>0</v>
@@ -2172,14 +2194,14 @@
         <v>0.33</v>
       </c>
       <c r="T11" s="9">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="U11" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -2244,7 +2266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>243</v>
       </c>
@@ -2268,7 +2290,7 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="0"/>
@@ -2276,10 +2298,10 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="9">
         <v>0.75</v>
@@ -2312,9 +2334,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>184</v>
@@ -2336,50 +2358,53 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
-        <v>0.21249999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N14" s="16">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>2</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="9">
         <v>0.5</v>
       </c>
-      <c r="L14" s="3">
-        <v>2</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="N14" s="16">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0.33</v>
-      </c>
       <c r="S14" s="9">
         <v>0</v>
       </c>
       <c r="T14" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="U14" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>311</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>184</v>
@@ -2394,58 +2419,57 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <f>J15*K15*M15</f>
-        <v>0.42499999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.8</v>
       </c>
       <c r="J15" s="3">
-        <f>O15/H15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K15" s="3">
-        <f>O15/L15</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
         <v>2</v>
       </c>
       <c r="M15" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N15" s="16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R15" s="9">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="S15" s="9">
         <v>0</v>
       </c>
       <c r="T15" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="U15" s="16">
-        <v>2</v>
-      </c>
-      <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>184</v>
@@ -2453,44 +2477,41 @@
       <c r="C16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D16" t="s">
-        <v>170</v>
-      </c>
       <c r="E16" s="3">
         <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <f>J16*K16*M16</f>
-        <v>0.39999999999999997</v>
+        <f t="shared" ref="I16:I29" si="3">J16*K16*M16</f>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J16" s="3">
-        <f>O16/H16</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="J16:J29" si="4">O16/H16</f>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
-        <f>O16/L16</f>
-        <v>1</v>
+        <f t="shared" ref="K16:K29" si="5">O16/L16</f>
+        <v>0.5</v>
       </c>
       <c r="L16" s="3">
         <v>2</v>
       </c>
       <c r="M16" s="9">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="N16" s="16">
         <v>-1</v>
       </c>
       <c r="O16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" s="3">
         <v>0</v>
@@ -2499,105 +2520,102 @@
         <v>0</v>
       </c>
       <c r="R16" s="9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S16" s="9">
         <v>0</v>
       </c>
       <c r="T16" s="9">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="U16" s="16">
-        <v>4</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="E17" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
-        <f>J17*K17*M17</f>
-        <v>0.6333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>0.39999999999999997</v>
       </c>
       <c r="J17" s="3">
-        <f>O17/H17</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K17" s="3">
-        <f>O17/L17</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" s="9">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="N17" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="3">
         <v>2</v>
       </c>
       <c r="P17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="9">
         <v>0</v>
       </c>
       <c r="R17" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S17" s="9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V17" s="8"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+      <c r="U17" s="16">
+        <v>4</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="E18" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -2606,67 +2624,67 @@
         <v>141</v>
       </c>
       <c r="H18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3">
-        <f>J18*K18*M18</f>
-        <v>1.7333333333333334</v>
+        <f t="shared" si="3"/>
+        <v>0.6333333333333333</v>
       </c>
       <c r="J18" s="3">
-        <f>O18/H18</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f>O18/L18</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" s="9">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="N18" s="16">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R18" s="9">
         <v>0</v>
       </c>
       <c r="S18" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T18" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="U18" s="16">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="V18" s="8"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -2675,37 +2693,37 @@
         <v>141</v>
       </c>
       <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
         <v>4</v>
       </c>
-      <c r="I19" s="3">
-        <f>J19*K19*M19</f>
-        <v>0.71249999999999991</v>
-      </c>
-      <c r="J19" s="3">
-        <f>O19/H19</f>
-        <v>0.75</v>
-      </c>
-      <c r="K19" s="3">
-        <f>O19/L19</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>3</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="N19" s="16">
-        <v>2</v>
-      </c>
-      <c r="O19" s="3">
-        <v>3</v>
-      </c>
       <c r="P19" s="3">
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
@@ -2714,28 +2732,28 @@
         <v>0</v>
       </c>
       <c r="T19" s="9">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="U19" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V19" s="8"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E20" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -2744,28 +2762,28 @@
         <v>141</v>
       </c>
       <c r="H20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="3">
-        <f>J20*K20*M20</f>
-        <v>1.35</v>
+        <f t="shared" si="3"/>
+        <v>0.71249999999999991</v>
       </c>
       <c r="J20" s="3">
-        <f>O20/H20</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.75</v>
       </c>
       <c r="K20" s="3">
-        <f>O20/L20</f>
-        <v>1.5</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" s="9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N20" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="3">
         <v>3</v>
@@ -2774,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
@@ -2783,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="9">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="U20" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V20" s="8"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>184</v>
@@ -2800,8 +2818,11 @@
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
       <c r="E21" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -2813,28 +2834,28 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <f>J21*K21*M21</f>
-        <v>1.2666666666666666</v>
+        <f t="shared" si="3"/>
+        <v>1.35</v>
       </c>
       <c r="J21" s="3">
-        <f>O21/H21</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K21" s="3">
-        <f>O21/L21</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1.5</v>
       </c>
       <c r="L21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N21" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -2849,30 +2870,25 @@
         <v>0</v>
       </c>
       <c r="T21" s="9">
-        <v>0</v>
-      </c>
-      <c r="U21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.67</v>
+      </c>
+      <c r="U21" s="16">
+        <v>3</v>
+      </c>
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -2884,28 +2900,28 @@
         <v>3</v>
       </c>
       <c r="I22" s="3">
-        <f>J22*K22*M22</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.2666666666666666</v>
       </c>
       <c r="J22" s="3">
-        <f>O22/H22</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K22" s="3">
-        <f>O22/L22</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="L22" s="3">
         <v>1</v>
       </c>
       <c r="M22" s="9">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="N22" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -2917,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T22" s="9">
         <v>0</v>
@@ -2925,28 +2941,26 @@
       <c r="U22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="E23" s="3">
         <v>8</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>141</v>
@@ -2955,28 +2969,28 @@
         <v>3</v>
       </c>
       <c r="I23" s="3">
-        <f>J23*K23*M23</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <f>O23/H23</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <f>O23/L23</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>1</v>
       </c>
       <c r="M23" s="9">
-        <v>0.65</v>
+        <v>2</v>
       </c>
       <c r="N23" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -2991,15 +3005,18 @@
         <v>0</v>
       </c>
       <c r="T23" s="9">
-        <v>1</v>
-      </c>
-      <c r="U23" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>184</v>
@@ -3008,10 +3025,10 @@
         <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="E24" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24" s="3">
         <v>3</v>
@@ -3020,31 +3037,31 @@
         <v>141</v>
       </c>
       <c r="H24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24" s="3">
-        <f>J24*K24*M24</f>
-        <v>2.16</v>
+        <f t="shared" si="3"/>
+        <v>0.8666666666666667</v>
       </c>
       <c r="J24" s="3">
-        <f>O24/H24</f>
-        <v>1.2</v>
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K24" s="3">
-        <f>O24/L24</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24" s="9">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="N24" s="16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -3059,18 +3076,15 @@
         <v>0</v>
       </c>
       <c r="T24" s="9">
-        <v>0</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V24" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>184</v>
@@ -3079,10 +3093,10 @@
         <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="E25" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -3091,37 +3105,37 @@
         <v>141</v>
       </c>
       <c r="H25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="3">
-        <f>J25*K25*M25</f>
-        <v>3.2666666666666675</v>
+        <f t="shared" si="3"/>
+        <v>2.16</v>
       </c>
       <c r="J25" s="3">
-        <f>O25/H25</f>
-        <v>1.75</v>
+        <f t="shared" si="4"/>
+        <v>1.2</v>
       </c>
       <c r="K25" s="3">
-        <f>O25/L25</f>
-        <v>2.3333333333333335</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="L25" s="3">
         <v>3</v>
       </c>
       <c r="M25" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N25" s="16">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="O25" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P25" s="3">
         <v>0</v>
       </c>
       <c r="Q25" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="9">
         <v>0</v>
@@ -3135,11 +3149,13 @@
       <c r="U25" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V25" s="8"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V25" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>184</v>
@@ -3148,10 +3164,10 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -3163,34 +3179,34 @@
         <v>4</v>
       </c>
       <c r="I26" s="3">
-        <f>J26*K26*M26</f>
-        <v>1.8</v>
+        <f t="shared" si="3"/>
+        <v>3.4708333333333337</v>
       </c>
       <c r="J26" s="3">
-        <f>O26/H26</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.75</v>
       </c>
       <c r="K26" s="3">
-        <f>O26/L26</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N26" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O26" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="9">
-        <v>0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="R26" s="9">
         <v>0</v>
@@ -3199,25 +3215,25 @@
         <v>0</v>
       </c>
       <c r="T26" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U26" s="16">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>285</v>
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
       </c>
       <c r="E27" s="3">
         <v>10</v>
@@ -3232,25 +3248,25 @@
         <v>4</v>
       </c>
       <c r="I27" s="3">
-        <f>J27*K27*M27</f>
-        <v>1.9</v>
+        <f t="shared" si="3"/>
+        <v>1.6</v>
       </c>
       <c r="J27" s="3">
-        <f>O27/H27</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K27" s="3">
-        <f>O27/L27</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L27" s="3">
         <v>2</v>
       </c>
       <c r="M27" s="9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="N27" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>4</v>
@@ -3259,69 +3275,193 @@
         <v>0</v>
       </c>
       <c r="Q27" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R27" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S27" s="9">
         <v>0</v>
       </c>
       <c r="T27" s="9">
-        <v>0</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V27" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+      <c r="U27" s="16">
+        <v>4</v>
+      </c>
+      <c r="V27" s="8"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>282</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D28" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="9"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="N28" s="16">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>4</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="W28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="C29" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" s="3">
+        <v>13</v>
+      </c>
       <c r="F29" s="3">
         <v>3</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="9"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N29" s="16">
+        <v>-3</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="U29" s="16">
+        <v>3</v>
+      </c>
+      <c r="V29" t="s">
+        <v>309</v>
+      </c>
+      <c r="W29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="L30" s="3"/>
+      <c r="M30" s="9"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.3">
@@ -3340,8 +3480,8 @@
       <c r="K37" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD909090">
-    <cfRule type="expression" dxfId="3" priority="15">
+  <conditionalFormatting sqref="A1:XFD14 W15:XFD15 A16:XFD909090 A15:C15 H15:L15 O15:P15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3355,7 +3495,8 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3608,11 +3749,11 @@
         <v>1</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ref="I8:I19" si="0">J8*K8*M8</f>
+        <f t="shared" ref="I8:I20" si="0">J8*K8*M8</f>
         <v>0.9</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J27" si="1">O8/H8</f>
+        <f t="shared" ref="J8:J20" si="1">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
@@ -3685,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="9">
         <v>2</v>
@@ -3715,7 +3856,7 @@
         <v>78</v>
       </c>
       <c r="V9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -3742,7 +3883,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
@@ -3756,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="9">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="N10" s="16">
         <v>0</v>
@@ -3933,7 +4074,7 @@
         <v>141</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
@@ -3941,14 +4082,14 @@
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="9">
         <v>1.05</v>
@@ -3978,7 +4119,7 @@
         <v>78</v>
       </c>
       <c r="V13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -4083,7 +4224,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" ref="K15:K19" si="7">O15/L15</f>
+        <f t="shared" ref="K15:K20" si="7">O15/L15</f>
         <v>1</v>
       </c>
       <c r="L15" s="3">
@@ -4111,10 +4252,10 @@
         <v>0</v>
       </c>
       <c r="T15" s="9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U15" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -4141,7 +4282,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>2.2222222222222228</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
@@ -4155,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="M16" s="9">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="N16" s="16">
         <v>0</v>
@@ -4180,6 +4321,9 @@
       </c>
       <c r="U16" s="16" t="s">
         <v>78</v>
+      </c>
+      <c r="V16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -4209,27 +4353,27 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L17" s="3">
         <v>2</v>
       </c>
       <c r="M17" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N17" s="16">
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -4244,10 +4388,10 @@
         <v>0</v>
       </c>
       <c r="T17" s="9">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="U17" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V17" t="s">
         <v>124</v>
@@ -4341,14 +4485,14 @@
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
@@ -4362,10 +4506,10 @@
         <v>2</v>
       </c>
       <c r="M19" s="9">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="N19" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O19" s="3">
         <v>4</v>
@@ -4374,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
@@ -4389,24 +4533,24 @@
         <v>78</v>
       </c>
       <c r="V19" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="E20" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -4418,28 +4562,28 @@
         <v>3</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20:I25" si="8">J20*K20*M20</f>
-        <v>0.46666666666666662</v>
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:K25" si="9">O20/L20</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1.5</v>
       </c>
       <c r="L20" s="3">
         <v>2</v>
       </c>
       <c r="M20" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N20" s="16">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -4451,21 +4595,21 @@
         <v>0</v>
       </c>
       <c r="S20" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T20" s="9">
-        <v>0</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>78</v>
+        <v>0.25</v>
+      </c>
+      <c r="U20" s="16">
+        <v>3</v>
       </c>
       <c r="V20" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>183</v>
@@ -4474,10 +4618,10 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="E21" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -4489,400 +4633,403 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
+        <f t="shared" ref="I21:I26" si="8">J21*K21*M21</f>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" ref="J21:J28" si="9">O21/H21</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" ref="K21:K26" si="10">O21/L21</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="N21" s="16">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="J21" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="J22" s="3">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L21" s="3">
-        <v>3</v>
-      </c>
-      <c r="M21" s="9">
+      <c r="K22" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3</v>
+      </c>
+      <c r="M22" s="9">
         <v>0.9</v>
       </c>
-      <c r="N21" s="16">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
+      <c r="N22" s="16">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
         <v>0.1</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R22" s="9">
         <v>0.75</v>
       </c>
-      <c r="S21" s="9">
-        <v>0</v>
-      </c>
-      <c r="T21" s="9">
-        <v>0</v>
-      </c>
-      <c r="U21" s="16" t="s">
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>9</v>
       </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <f t="shared" si="8"/>
         <v>2.6133333333333333</v>
       </c>
-      <c r="J22" s="3">
-        <f t="shared" si="1"/>
+      <c r="J23" s="3">
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
-      <c r="K22" s="3">
-        <f t="shared" si="9"/>
+      <c r="K23" s="3">
+        <f t="shared" si="10"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="L22" s="3">
-        <v>3</v>
-      </c>
-      <c r="M22" s="9">
+      <c r="L23" s="3">
+        <v>3</v>
+      </c>
+      <c r="M23" s="9">
         <v>0.8</v>
       </c>
-      <c r="N22" s="16">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N23" s="16">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>7</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
         <v>0.33</v>
       </c>
-      <c r="U22" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="U23" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <v>10</v>
       </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>4</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <f t="shared" si="8"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="J23" s="3">
-        <f t="shared" si="1"/>
+      <c r="J24" s="3">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3</v>
-      </c>
-      <c r="M23" s="9">
+      <c r="K24" s="3">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3</v>
+      </c>
+      <c r="M24" s="9">
         <v>0.85</v>
       </c>
-      <c r="N23" s="16">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="N24" s="16">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>6</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
-        <v>0</v>
-      </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="16" t="s">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>12</v>
       </c>
-      <c r="F24" s="3">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
         <f t="shared" si="8"/>
         <v>3.1999999999999997</v>
       </c>
-      <c r="J24" s="3">
-        <f t="shared" si="1"/>
+      <c r="J25" s="3">
+        <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K24" s="3">
-        <f t="shared" si="9"/>
+      <c r="K25" s="3">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="9">
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
         <v>0.6</v>
       </c>
-      <c r="N24" s="16">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="N25" s="16">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <v>0</v>
-      </c>
-      <c r="U24" s="16" t="s">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>264</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>9</v>
       </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="8"/>
         <v>2.1333333333333333</v>
       </c>
-      <c r="J25" s="3">
-        <f t="shared" si="1"/>
+      <c r="J26" s="3">
+        <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K25" s="3">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2</v>
-      </c>
-      <c r="M25" s="9">
+      <c r="K26" s="3">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2</v>
+      </c>
+      <c r="M26" s="9">
         <v>0.8</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N26" s="16">
         <v>-1</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O26" s="3">
         <v>4</v>
       </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="16" t="s">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V25" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" t="s">
-        <v>258</v>
-      </c>
-      <c r="E26" s="3">
-        <v>16</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="3">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" ref="I26:I27" si="10">J26*K26*M26</f>
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="J26" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="K26" s="3">
-        <f t="shared" ref="K26:K27" si="11">O26/L26</f>
-        <v>3</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="N26" s="16">
-        <v>-3</v>
-      </c>
-      <c r="O26" s="3">
-        <v>9</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>0</v>
-      </c>
-      <c r="R26" s="9">
-        <v>0</v>
-      </c>
-      <c r="S26" s="9">
-        <v>0</v>
-      </c>
-      <c r="T26" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U26" s="16">
-        <v>3</v>
+      <c r="V26" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>183</v>
@@ -4890,8 +5037,11 @@
       <c r="C27" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="D27" t="s">
+        <v>257</v>
+      </c>
       <c r="E27" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F27" s="3">
         <v>4</v>
@@ -4900,68 +5050,130 @@
         <v>141</v>
       </c>
       <c r="H27" s="3">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" ref="I27:I28" si="11">J27*K27*M27</f>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" ref="K27:K28" si="12">O27/L27</f>
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
+        <v>3</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N27" s="16">
+        <v>-3</v>
+      </c>
+      <c r="O27" s="3">
+        <v>9</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="U27" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="3">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="I27" s="3">
-        <f t="shared" si="10"/>
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="J27" s="3">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="G28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="9">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9">
         <v>0.95</v>
       </c>
-      <c r="N27" s="16">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="R27" s="9">
-        <v>0</v>
-      </c>
-      <c r="S27" s="9">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9">
-        <v>0</v>
-      </c>
-      <c r="U27" s="16" t="s">
+      <c r="N28" s="16">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="M28" s="9"/>
+      <c r="V28" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="M29" s="9"/>
-      <c r="U29" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD24 A28:XFD909090 V25:XFD27 A26:U27 A25:D25">
-    <cfRule type="expression" dxfId="22" priority="16">
+  <conditionalFormatting sqref="A1:XFD909090">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4974,7 +5186,8 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5137,7 +5350,7 @@
     </row>
     <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5405,12 +5618,12 @@
         <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>182</v>
@@ -5537,6 +5750,9 @@
       <c r="U12" s="16">
         <v>3</v>
       </c>
+      <c r="V12" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5579,7 +5795,7 @@
         <v>0.85</v>
       </c>
       <c r="N13" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" s="3">
         <v>1</v>
@@ -5603,7 +5819,7 @@
         <v>78</v>
       </c>
       <c r="V13" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -5671,12 +5887,12 @@
         <v>2</v>
       </c>
       <c r="V14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>182</v>
@@ -5718,7 +5934,7 @@
         <v>0.75</v>
       </c>
       <c r="N15" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="3">
         <v>2</v>
@@ -5744,7 +5960,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>182</v>
@@ -5810,12 +6026,12 @@
         <v>78</v>
       </c>
       <c r="V16" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>182</v>
@@ -5866,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="R17" s="9">
         <v>0</v>
@@ -5886,7 +6102,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>182</v>
@@ -5966,7 +6182,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" s="3">
         <v>8</v>
@@ -5999,7 +6215,7 @@
         <v>1.05</v>
       </c>
       <c r="N19" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O19" s="3">
         <v>2</v>
@@ -6025,7 +6241,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>182</v>
@@ -6091,12 +6307,12 @@
         <v>3</v>
       </c>
       <c r="V20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>182</v>
@@ -6104,7 +6320,7 @@
       <c r="C21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E21" s="3">
@@ -6156,15 +6372,18 @@
         <v>0</v>
       </c>
       <c r="T21" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="U21" s="16">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>182</v>
@@ -6173,7 +6392,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E22" s="3">
         <v>13</v>
@@ -6189,7 +6408,7 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" ref="I22:I24" si="5">J22*K22*M22</f>
-        <v>2.4</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="J22" s="3">
         <f>O22/H22</f>
@@ -6203,7 +6422,7 @@
         <v>3</v>
       </c>
       <c r="M22" s="9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="N22" s="16">
         <v>-6</v>
@@ -6224,18 +6443,18 @@
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U22" s="16">
         <v>5</v>
       </c>
       <c r="V22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>182</v>
@@ -6244,7 +6463,7 @@
         <v>135</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E23" s="3">
         <v>11</v>
@@ -6260,7 +6479,7 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="5"/>
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J23" s="3">
         <f>O23/H23</f>
@@ -6274,7 +6493,7 @@
         <v>2</v>
       </c>
       <c r="M23" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N23" s="16">
         <v>0</v>
@@ -6295,18 +6514,18 @@
         <v>0</v>
       </c>
       <c r="T23" s="9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U23" s="16">
         <v>3</v>
       </c>
       <c r="V23" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>182</v>
@@ -6315,7 +6534,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E24" s="3">
         <v>12</v>
@@ -6327,7 +6546,7 @@
         <v>141</v>
       </c>
       <c r="H24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="5"/>
@@ -6372,12 +6591,12 @@
         <v>78</v>
       </c>
       <c r="V24" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>182</v>
@@ -6385,6 +6604,9 @@
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="E25" s="3">
         <v>10</v>
       </c>
@@ -6399,7 +6621,7 @@
       </c>
       <c r="I25" s="3">
         <f>J25*K25*M25</f>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="J25" s="3">
         <f>O25/H25</f>
@@ -6413,10 +6635,10 @@
         <v>1</v>
       </c>
       <c r="M25" s="9">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="N25" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O25" s="3">
         <v>2</v>
@@ -6440,17 +6662,17 @@
         <v>78</v>
       </c>
       <c r="V25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD20 A24:XFD24 W21:XFD23 A22:V23 A21 A26:XFD909090 A25:D25 W25:XFD25">
-    <cfRule type="expression" dxfId="21" priority="8">
+  <conditionalFormatting sqref="A1:XFD20 A24:XFD24 W21:XFD23 A22:V23 A21 A26:XFD909090 A25:D25 W25:XFD25 V21">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:V25">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6463,8 +6685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C332C6-0F15-4384-8259-DE52E9979FA5}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6720,7 +6943,7 @@
         <v>0.75</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J25" si="1">O8/H8</f>
+        <f t="shared" ref="J8:J21" si="1">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
@@ -6814,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="9">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="T9" s="9">
         <v>0.5</v>
@@ -6885,7 +7108,7 @@
         <v>0.75</v>
       </c>
       <c r="U10" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -6953,7 +7176,7 @@
         <v>78</v>
       </c>
       <c r="V11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -7012,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="9">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
@@ -7021,12 +7244,12 @@
         <v>78</v>
       </c>
       <c r="V12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>181</v>
@@ -7044,31 +7267,31 @@
         <v>141</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>0.47499999999999998</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="N13" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
         <v>0</v>
@@ -7083,18 +7306,18 @@
         <v>0</v>
       </c>
       <c r="T13" s="9">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="U13" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" t="s">
-        <v>124</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>181</v>
@@ -7183,7 +7406,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" ref="I15:I25" si="3">J15*K15*M15</f>
+        <f t="shared" ref="I15:I21" si="3">J15*K15*M15</f>
         <v>1.35</v>
       </c>
       <c r="J15" s="3">
@@ -7219,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="U15" s="16">
         <v>2</v>
@@ -7293,7 +7516,7 @@
         <v>2</v>
       </c>
       <c r="V16" t="s">
-        <v>124</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -7323,18 +7546,18 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="3"/>
-        <v>0.39999999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K17" s="3">
         <f>O17/L17</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="L17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" s="9">
         <v>0.9</v>
@@ -7343,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" s="3">
         <v>2</v>
@@ -7402,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="9">
         <v>2</v>
@@ -7420,10 +7643,10 @@
         <v>0</v>
       </c>
       <c r="R18" s="9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S18" s="9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T18" s="9">
         <v>0</v>
@@ -7432,7 +7655,7 @@
         <v>78</v>
       </c>
       <c r="V18" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -7531,11 +7754,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:K25" si="5">O20/L20</f>
+        <f t="shared" ref="K20:K21" si="5">O20/L20</f>
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="9">
         <v>2</v>
@@ -7570,7 +7793,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>181</v>
@@ -7579,58 +7802,58 @@
         <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="E21" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="3"/>
-        <v>1.666666666666667</v>
+        <v>0.35</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" s="9">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="N21" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="R21" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S21" s="9">
         <v>0</v>
       </c>
       <c r="T21" s="9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="U21" s="16">
         <v>3</v>
@@ -7638,7 +7861,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>181</v>
@@ -7647,10 +7870,10 @@
         <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="E22" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -7662,63 +7885,60 @@
         <v>4</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" ref="I22:I27" si="6">J22*K22*M22</f>
+        <v>1.666666666666667</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="J22:J27" si="7">O22/H22</f>
+        <v>1.25</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" ref="K22:K27" si="8">O22/L22</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="L22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" s="9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="N22" s="16">
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R22" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S22" s="9">
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="U22" s="16">
-        <v>5</v>
-      </c>
-      <c r="V22" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E23" s="3">
         <v>9</v>
@@ -7733,34 +7953,34 @@
         <v>4</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1.5</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="L23" s="3">
         <v>2</v>
       </c>
       <c r="M23" s="9">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="N23" s="16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="9">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
         <v>0</v>
@@ -7769,18 +7989,18 @@
         <v>0</v>
       </c>
       <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>78</v>
+        <v>0.75</v>
+      </c>
+      <c r="U23" s="16">
+        <v>5</v>
       </c>
       <c r="V23" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>181</v>
@@ -7788,6 +8008,9 @@
       <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
       <c r="E24" s="3">
         <v>10</v>
       </c>
@@ -7798,28 +8021,28 @@
         <v>141</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="9">
         <v>2</v>
       </c>
       <c r="N24" s="16">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -7828,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="9">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="R24" s="9">
         <v>0</v>
@@ -7843,12 +8066,12 @@
         <v>78</v>
       </c>
       <c r="V24" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>181</v>
@@ -7857,10 +8080,10 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="E25" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -7869,18 +8092,18 @@
         <v>141</v>
       </c>
       <c r="H25" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L25" s="3">
@@ -7890,43 +8113,245 @@
         <v>2</v>
       </c>
       <c r="N25" s="16">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="3">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9">
+        <v>2</v>
+      </c>
+      <c r="N26" s="16">
         <v>-9</v>
       </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="17" t="s">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="V25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K28" s="3"/>
+      <c r="V26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="N27" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U27" s="16">
+        <v>3</v>
+      </c>
+      <c r="V27" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K29" s="3"/>
+      <c r="A29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="3">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3">
+        <f>J29*K29*M29</f>
+        <v>1.3</v>
+      </c>
+      <c r="J29" s="3">
+        <f>O29/H29</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <f>O29/L29</f>
+        <v>2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N29" s="16">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="U29" s="16">
+        <v>6</v>
+      </c>
+      <c r="V29" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="K30" s="3"/>
@@ -7936,7 +8361,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD999999">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8321,7 +8746,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>231</v>
@@ -8341,7 +8766,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>231</v>
@@ -8361,7 +8786,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>232</v>
@@ -8381,7 +8806,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>232</v>
@@ -8401,7 +8826,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>234</v>
@@ -8441,7 +8866,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>235</v>
@@ -8506,7 +8931,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>235</v>
@@ -8529,46 +8954,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A10:B10 C15:C19 A16:B16 A1:C8 A20:C99999 C9:C11 A18:B20 H1:XFD4 H5:R5 T5:XFD5 A11 A12:C14 A15 A17 H6:XFD99999">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:G909090">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F1014 F1:F25">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8874,7 +9299,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10755,19 +11180,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10923,18 +11348,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10956,6 +11381,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F85B83-ED46-419F-858C-FAA5122D2FAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47B830A9-FEBC-43E4-93BC-65E9268F9200}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -10969,12 +11402,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F85B83-ED46-419F-858C-FAA5122D2FAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rpg.xlsx
+++ b/rpg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jane Wharton\Desktop\gladius-et-scutum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C12420A-AA2C-4CF1-99B3-FFB51DF02760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33432420-6515-4F51-9168-35C6D4EB20BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66B7849A-FFD3-4EDB-BD16-FC5287445CF5}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <sheet name="UNUSED-Abilities" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="329">
   <si>
     <t>Weapon</t>
   </si>
@@ -876,12 +877,6 @@
     <t>Prevents enemy movement for 2 actions</t>
   </si>
   <si>
-    <t>Prevents enemy healing for 2 actions</t>
-  </si>
-  <si>
-    <t>Burning Oil</t>
-  </si>
-  <si>
     <t>Pierce 3</t>
   </si>
   <si>
@@ -951,9 +946,6 @@
     <t>WIDE DMG +1 for 2 turns</t>
   </si>
   <si>
-    <t>Clear status effects on the caster</t>
-  </si>
-  <si>
     <t>Pressure Beam</t>
   </si>
   <si>
@@ -993,9 +985,6 @@
     <t>This technique lights a fire deep inside your opponent's internal systems, burning them from the inside out and consuming the oxygen directly from their cells.</t>
   </si>
   <si>
-    <t>Pierce 3; Only works if enemy has &gt;= 1 Defense</t>
-  </si>
-  <si>
     <t>25% chance target is Stunned for 2 actions</t>
   </si>
   <si>
@@ -1012,6 +1001,36 @@
   </si>
   <si>
     <t>Pierce 1 while Short</t>
+  </si>
+  <si>
+    <t>Hot Oil</t>
+  </si>
+  <si>
+    <t>Sand Slash</t>
+  </si>
+  <si>
+    <t>Enemy accuracy -10% for 4 actions</t>
+  </si>
+  <si>
+    <t>Prevents enemy healing for 3 actions</t>
+  </si>
+  <si>
+    <t>Grounding</t>
+  </si>
+  <si>
+    <t>Clear all status effects on the user</t>
+  </si>
+  <si>
+    <t>Clear status effects on the user</t>
+  </si>
+  <si>
+    <t>Pierce 4; Only works if enemy has &gt;= 1 Defense</t>
+  </si>
+  <si>
+    <t>Conduction</t>
+  </si>
+  <si>
+    <t>Disarm 100%</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1724,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1795,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2336,7 +2355,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>184</v>
@@ -2399,12 +2418,12 @@
         <v>78</v>
       </c>
       <c r="V14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>184</v>
@@ -2490,15 +2509,15 @@
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" ref="I16:I29" si="3">J16*K16*M16</f>
+        <f t="shared" ref="I16:I30" si="3">J16*K16*M16</f>
         <v>0.42499999999999999</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16:J29" si="4">O16/H16</f>
+        <f t="shared" ref="J16:J30" si="4">O16/H16</f>
         <v>1</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" ref="K16:K29" si="5">O16/L16</f>
+        <f t="shared" ref="K16:K30" si="5">O16/L16</f>
         <v>0.5</v>
       </c>
       <c r="L16" s="3">
@@ -2879,7 +2898,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>184</v>
@@ -2945,7 +2964,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>184</v>
@@ -3011,12 +3030,12 @@
         <v>78</v>
       </c>
       <c r="V23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>184</v>
@@ -3041,15 +3060,15 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
@@ -3061,7 +3080,7 @@
         <v>-1</v>
       </c>
       <c r="O24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -3076,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="T24" s="9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U24" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -3093,7 +3112,7 @@
         <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E25" s="3">
         <v>12</v>
@@ -3150,7 +3169,7 @@
         <v>78</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -3293,7 +3312,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>184</v>
@@ -3302,7 +3321,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E28" s="3">
         <v>10</v>
@@ -3362,12 +3381,12 @@
         <v>273</v>
       </c>
       <c r="W28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>184</v>
@@ -3376,7 +3395,7 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E29" s="3">
         <v>13</v>
@@ -3433,28 +3452,82 @@
         <v>3</v>
       </c>
       <c r="V29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="W29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
+      <c r="A30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="3">
+        <v>11</v>
+      </c>
       <c r="F30" s="3">
         <v>3</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="9"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>2</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
@@ -3492,11 +3565,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687D88A5-CB1C-45DA-9298-58CF74D03E3F}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3856,7 +3929,7 @@
         <v>78</v>
       </c>
       <c r="V9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -4119,7 +4192,7 @@
         <v>78</v>
       </c>
       <c r="V13" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -4388,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="T17" s="9">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="U17" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V17" t="s">
         <v>124</v>
@@ -4533,12 +4606,12 @@
         <v>78</v>
       </c>
       <c r="V19" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>183</v>
@@ -4604,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="V20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -4633,15 +4706,15 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" ref="I21:I26" si="8">J21*K21*M21</f>
+        <f t="shared" ref="I21:I23" si="8">J21*K21*M21</f>
         <v>0.46666666666666662</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" ref="J21:J28" si="9">O21/H21</f>
+        <f t="shared" ref="J21:J23" si="9">O21/H21</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" ref="K21:K26" si="10">O21/L21</f>
+        <f t="shared" ref="K21:K23" si="10">O21/L21</f>
         <v>1</v>
       </c>
       <c r="L21" s="3">
@@ -4657,7 +4730,7 @@
         <v>2</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="9">
         <v>0</v>
@@ -4675,7 +4748,7 @@
         <v>78</v>
       </c>
       <c r="V21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -4705,7 +4778,7 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="8"/>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="9"/>
@@ -4719,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="M22" s="9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N22" s="16">
         <v>3</v>
@@ -4740,15 +4813,15 @@
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <v>0</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>78</v>
+        <v>0.5</v>
+      </c>
+      <c r="U22" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>183</v>
@@ -4757,43 +4830,43 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="E23" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="8"/>
-        <v>2.6133333333333333</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="10"/>
-        <v>2.3333333333333335</v>
+        <v>1</v>
       </c>
       <c r="L23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" s="9">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="N23" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -4805,30 +4878,33 @@
         <v>0</v>
       </c>
       <c r="S23" s="9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="T23" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U23" s="16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>177</v>
       </c>
       <c r="E24" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3">
         <v>3</v>
@@ -4837,31 +4913,31 @@
         <v>141</v>
       </c>
       <c r="H24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="8"/>
-        <v>2.5499999999999998</v>
+        <f>J24*K24*M24</f>
+        <v>2.6133333333333333</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f>O24/H24</f>
+        <v>1.4</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f>O24/L24</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L24" s="3">
         <v>3</v>
       </c>
       <c r="M24" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N24" s="16">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -4876,18 +4952,15 @@
         <v>0</v>
       </c>
       <c r="T24" s="9">
-        <v>0</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V24" t="s">
-        <v>125</v>
+        <v>0.33</v>
+      </c>
+      <c r="U24" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>183</v>
@@ -4895,11 +4968,11 @@
       <c r="C25" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>258</v>
+      <c r="D25" t="s">
+        <v>177</v>
       </c>
       <c r="E25" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -4908,31 +4981,31 @@
         <v>141</v>
       </c>
       <c r="H25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="8"/>
-        <v>3.1999999999999997</v>
+        <f>J25*K25*M25</f>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <f>O25/H25</f>
+        <v>1.5</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f>O25/L25</f>
+        <v>2</v>
       </c>
       <c r="L25" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" s="9">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="N25" s="16">
         <v>0</v>
       </c>
       <c r="O25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P25" s="3">
         <v>0</v>
@@ -4953,24 +5026,24 @@
         <v>78</v>
       </c>
       <c r="V25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>191</v>
+        <v>135</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="E26" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -4982,25 +5055,25 @@
         <v>3</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="8"/>
-        <v>2.1333333333333333</v>
+        <f>J26*K26*M26</f>
+        <v>3.1999999999999997</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="9"/>
+        <f>O26/H26</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f>O26/L26</f>
+        <v>4</v>
       </c>
       <c r="L26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N26" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>4</v>
@@ -5024,60 +5097,60 @@
         <v>78</v>
       </c>
       <c r="V26" t="s">
-        <v>273</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="E27" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" ref="I27:I28" si="11">J27*K27*M27</f>
-        <v>4.0500000000000007</v>
+        <f>J27*K27*M27</f>
+        <v>2.1333333333333333</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
+        <f>O27/H27</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" ref="K27:K28" si="12">O27/L27</f>
-        <v>3</v>
+        <f>O27/L27</f>
+        <v>2</v>
       </c>
       <c r="L27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" s="9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="N27" s="16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="O27" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P27" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="9">
         <v>0</v>
@@ -5089,15 +5162,18 @@
         <v>0</v>
       </c>
       <c r="T27" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U27" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>183</v>
@@ -5106,10 +5182,10 @@
         <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="E28" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -5118,61 +5194,192 @@
         <v>141</v>
       </c>
       <c r="H28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28" s="3">
+        <f t="shared" ref="I28:I30" si="11">J28*K28*M28</f>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="J28" s="3">
+        <f>O28/H28</f>
+        <v>1.8</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" ref="K28:K30" si="12">O28/L28</f>
+        <v>3</v>
+      </c>
+      <c r="L28" s="3">
+        <v>3</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N28" s="16">
+        <v>-3</v>
+      </c>
+      <c r="O28" s="3">
+        <v>9</v>
+      </c>
+      <c r="P28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="U28" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" s="3">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <f t="shared" si="11"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="J28" s="3">
-        <f t="shared" si="9"/>
+      <c r="J29" s="3">
+        <f>O29/H29</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K29" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="9">
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
         <v>0.95</v>
       </c>
-      <c r="N28" s="16">
-        <v>1</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
+      <c r="N29" s="16">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
         <v>0.05</v>
       </c>
-      <c r="R28" s="9">
-        <v>0</v>
-      </c>
-      <c r="S28" s="9">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0</v>
-      </c>
-      <c r="U28" s="16" t="s">
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V28" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="M29" s="9"/>
+      <c r="V29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="11"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="J30" s="3">
+        <f>O30/H30</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>2</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD909090">
+  <conditionalFormatting sqref="A1:XFD22 A33:XFD909090 W23:XFD32 A24:V32 A23:D23 V23">
     <cfRule type="expression" dxfId="19" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5187,7 +5394,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5618,7 +5825,7 @@
         <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -5751,7 +5958,7 @@
         <v>3</v>
       </c>
       <c r="V12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -5819,7 +6026,7 @@
         <v>78</v>
       </c>
       <c r="V13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -5960,7 +6167,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>182</v>
@@ -6026,7 +6233,7 @@
         <v>78</v>
       </c>
       <c r="V16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -6312,7 +6519,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>182</v>
@@ -6378,7 +6585,7 @@
         <v>78</v>
       </c>
       <c r="V21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -6454,7 +6661,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>182</v>
@@ -6463,7 +6670,7 @@
         <v>135</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E23" s="3">
         <v>11</v>
@@ -6475,22 +6682,22 @@
         <v>197</v>
       </c>
       <c r="H23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="5"/>
-        <v>1.8</v>
+        <v>1.5999999999999999</v>
       </c>
       <c r="J23" s="3">
         <f>O23/H23</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K23" s="3">
         <f>O23/L23</f>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" s="9">
         <v>0.9</v>
@@ -6520,12 +6727,12 @@
         <v>3</v>
       </c>
       <c r="V23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>182</v>
@@ -6534,7 +6741,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E24" s="3">
         <v>12</v>
@@ -6591,12 +6798,12 @@
         <v>78</v>
       </c>
       <c r="V24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>182</v>
@@ -6662,7 +6869,7 @@
         <v>78</v>
       </c>
       <c r="V25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -6687,7 +6894,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7176,7 +7383,7 @@
         <v>78</v>
       </c>
       <c r="V11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -7244,7 +7451,7 @@
         <v>78</v>
       </c>
       <c r="V12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -7312,7 +7519,7 @@
         <v>3</v>
       </c>
       <c r="V13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -7377,7 +7584,7 @@
         <v>0.75</v>
       </c>
       <c r="U14" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -7403,15 +7610,15 @@
         <v>141</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" ref="I15:I21" si="3">J15*K15*M15</f>
-        <v>1.35</v>
+        <v>0.9</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3">
         <f>O15/L15</f>
@@ -7516,7 +7723,7 @@
         <v>2</v>
       </c>
       <c r="V16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -7655,7 +7862,7 @@
         <v>78</v>
       </c>
       <c r="V18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -7793,7 +8000,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>181</v>
@@ -8066,7 +8273,7 @@
         <v>78</v>
       </c>
       <c r="V24" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -8080,7 +8287,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E25" s="3">
         <v>10</v>
@@ -8208,12 +8415,12 @@
         <v>78</v>
       </c>
       <c r="V26" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>181</v>
@@ -8284,7 +8491,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>181</v>
@@ -8350,7 +8557,7 @@
         <v>6</v>
       </c>
       <c r="V29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -11348,18 +11555,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11381,14 +11588,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F85B83-ED46-419F-858C-FAA5122D2FAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47B830A9-FEBC-43E4-93BC-65E9268F9200}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -11402,4 +11601,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F85B83-ED46-419F-858C-FAA5122D2FAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rpg.xlsx
+++ b/rpg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jane Wharton\Desktop\gladius-et-scutum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33432420-6515-4F51-9168-35C6D4EB20BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636F647-6821-4AA1-8B50-D9799265B78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66B7849A-FFD3-4EDB-BD16-FC5287445CF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{66B7849A-FFD3-4EDB-BD16-FC5287445CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities-Fire" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="394">
   <si>
     <t>Weapon</t>
   </si>
@@ -727,9 +727,6 @@
     <t>Fire Eater</t>
   </si>
   <si>
-    <t>Grab Weapon</t>
-  </si>
-  <si>
     <t>Inferno</t>
   </si>
   <si>
@@ -760,15 +757,6 @@
     <t>Furnace</t>
   </si>
   <si>
-    <t>Venom</t>
-  </si>
-  <si>
-    <t>Acid Spray</t>
-  </si>
-  <si>
-    <t>Poison 3</t>
-  </si>
-  <si>
     <t>Whip &amp; Rope</t>
   </si>
   <si>
@@ -787,9 +775,6 @@
     <t>Armorslayer</t>
   </si>
   <si>
-    <t>J&amp;S,H&amp;S,S&amp;D,A&amp;S</t>
-  </si>
-  <si>
     <t>Wall of Clay</t>
   </si>
   <si>
@@ -847,12 +832,6 @@
     <t>Evoke Forest</t>
   </si>
   <si>
-    <t>Oaken Limbs</t>
-  </si>
-  <si>
-    <t>Steamgun</t>
-  </si>
-  <si>
     <t>Eruption</t>
   </si>
   <si>
@@ -895,15 +874,9 @@
     <t>Flaming Aura</t>
   </si>
   <si>
-    <t>Disarm 33%</t>
-  </si>
-  <si>
     <t>Speed +1 for 4 turns</t>
   </si>
   <si>
-    <t>Spiral Out, Disarming Gust</t>
-  </si>
-  <si>
     <t>Disarm 75%</t>
   </si>
   <si>
@@ -922,9 +895,6 @@
     <t>DFN +1 for 3 turns</t>
   </si>
   <si>
-    <t>EVA +5 for 6 turns</t>
-  </si>
-  <si>
     <t>Suppressing Sands</t>
   </si>
   <si>
@@ -976,9 +946,6 @@
     <t>Downpour</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>A grappling move that temporarily disables motor neurons in the opponent's peripheral nervous system, making it impossible for them to move.</t>
   </si>
   <si>
@@ -988,9 +955,6 @@
     <t>25% chance target is Stunned for 2 actions</t>
   </si>
   <si>
-    <t>33% chance target is Burning for 6 actions</t>
-  </si>
-  <si>
     <t>Speed +1 for 2 turns</t>
   </si>
   <si>
@@ -1024,13 +988,244 @@
     <t>Clear status effects on the user</t>
   </si>
   <si>
-    <t>Pierce 4; Only works if enemy has &gt;= 1 Defense</t>
-  </si>
-  <si>
     <t>Conduction</t>
   </si>
   <si>
     <t>Disarm 100%</t>
+  </si>
+  <si>
+    <t>Earth Mastery</t>
+  </si>
+  <si>
+    <t>Stone Skin</t>
+  </si>
+  <si>
+    <t>Potency</t>
+  </si>
+  <si>
+    <t>Fire Mastery</t>
+  </si>
+  <si>
+    <t>Accuracy +5% with all Fire techniques per Skill Point spent</t>
+  </si>
+  <si>
+    <t>Accuracy +5% with all Earth techniques per Skill Point spent</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Air Mastery</t>
+  </si>
+  <si>
+    <t>Accuracy +5% with all Air techniques per Skill Point spent</t>
+  </si>
+  <si>
+    <t>Water Mastery</t>
+  </si>
+  <si>
+    <t>Accuracy +5% with all Water techniques per Skill Point spent</t>
+  </si>
+  <si>
+    <t>Anoxia</t>
+  </si>
+  <si>
+    <t>Chance to cause Stunned status increased</t>
+  </si>
+  <si>
+    <t>Chance to cause Burning status increased</t>
+  </si>
+  <si>
+    <t>Chance to cause Hypoxia status increased</t>
+  </si>
+  <si>
+    <t>Toxicity</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Cloudwalk</t>
+  </si>
+  <si>
+    <t>Cold Fire</t>
+  </si>
+  <si>
+    <t>Short DMG +1</t>
+  </si>
+  <si>
+    <t>DFN +1</t>
+  </si>
+  <si>
+    <t>Wide EVA +10%</t>
+  </si>
+  <si>
+    <t>Short EVA +10%</t>
+  </si>
+  <si>
+    <t>Wide DMG +1</t>
+  </si>
+  <si>
+    <t>Solaris</t>
+  </si>
+  <si>
+    <t>Any Lv 1 Fire tech</t>
+  </si>
+  <si>
+    <t>Any Lv 2 Fire tech</t>
+  </si>
+  <si>
+    <t>Any Lv 1 Earth tech</t>
+  </si>
+  <si>
+    <t>Any Lv 3 Earth tech</t>
+  </si>
+  <si>
+    <t>Any Lv 3 Fire tech</t>
+  </si>
+  <si>
+    <t>Any Lv 1 Air tech</t>
+  </si>
+  <si>
+    <t>Any Lv 3 Air tech</t>
+  </si>
+  <si>
+    <t>Any Lv 1 Water tech</t>
+  </si>
+  <si>
+    <t>Any Lv 3 Water tech</t>
+  </si>
+  <si>
+    <t>Any Lv 2 Water tech</t>
+  </si>
+  <si>
+    <t>Quicksilver</t>
+  </si>
+  <si>
+    <t>Foggy Step</t>
+  </si>
+  <si>
+    <t>Disarm 90%</t>
+  </si>
+  <si>
+    <t>Solid Guard</t>
+  </si>
+  <si>
+    <t>Shatter Weapon</t>
+  </si>
+  <si>
+    <t>Leverage Weapon</t>
+  </si>
+  <si>
+    <t>Destroy Weapon 50%; Disarm 100%</t>
+  </si>
+  <si>
+    <t>Only works if foe hits after using on this turn</t>
+  </si>
+  <si>
+    <t>Wide EVA +5 for 6 turns</t>
+  </si>
+  <si>
+    <t>Breakout</t>
+  </si>
+  <si>
+    <t>Misdirection</t>
+  </si>
+  <si>
+    <t>Tentacle</t>
+  </si>
+  <si>
+    <t>Disarm 40%</t>
+  </si>
+  <si>
+    <t>33% chance target is Toxic for 3 turns</t>
+  </si>
+  <si>
+    <t>Chance to cause Softened and Toxic status increased</t>
+  </si>
+  <si>
+    <t>Hailstorm</t>
+  </si>
+  <si>
+    <t>Adhesion</t>
+  </si>
+  <si>
+    <t>Liquefaction</t>
+  </si>
+  <si>
+    <t>F+A+W</t>
+  </si>
+  <si>
+    <t>F+E+A+W</t>
+  </si>
+  <si>
+    <t>F+E+W</t>
+  </si>
+  <si>
+    <t>F+E+A</t>
+  </si>
+  <si>
+    <t>E+A+W</t>
+  </si>
+  <si>
+    <t>Desertify</t>
+  </si>
+  <si>
+    <t>Steam Engine</t>
+  </si>
+  <si>
+    <t>Rarefaction</t>
+  </si>
+  <si>
+    <t>By selectively altering the density of your opponent's flesh, you rend muscle from bone.</t>
+  </si>
+  <si>
+    <t>A tremor that tops the scales is localized under your opponent's feet, effectively jackhammering them into the earth.</t>
+  </si>
+  <si>
+    <t>Mummify</t>
+  </si>
+  <si>
+    <t>Particle Beam</t>
+  </si>
+  <si>
+    <t>Germinate</t>
+  </si>
+  <si>
+    <t>Germinate a seed inside your opponent's body which grows, dealing progressively more damage.</t>
+  </si>
+  <si>
+    <t>Aerosol</t>
+  </si>
+  <si>
+    <t>100% chance to cause Toxic for 4 turns</t>
+  </si>
+  <si>
+    <t>Viper</t>
+  </si>
+  <si>
+    <t>Downpour, Dissolve</t>
+  </si>
+  <si>
+    <t>Heal, Downpour</t>
+  </si>
+  <si>
+    <t>Poison Spray</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Sword &amp; Buckler</t>
+  </si>
+  <si>
+    <t>Not Unarmed</t>
+  </si>
+  <si>
+    <t>Weighted Net</t>
+  </si>
+  <si>
+    <t>Pierce 4; Only works if enemy has &gt;= 2 Defense</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1345,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="15">
     <dxf>
       <font>
         <b/>
@@ -1218,74 +1413,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF9ADAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1722,9 +1849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670DB705-CC0B-41F0-BDA0-B9F22D5E773F}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1983,11 +2110,11 @@
         <v>0.8</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J15" si="0">O8/H8</f>
+        <f t="shared" ref="J8:J14" si="0">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" ref="K8:K15" si="1">O8/L8</f>
+        <f t="shared" ref="K8:K14" si="1">O8/L8</f>
         <v>1</v>
       </c>
       <c r="L8" s="3">
@@ -2045,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I15" si="2">J9*K9*M9</f>
+        <f t="shared" ref="I9:I14" si="2">J9*K9*M9</f>
         <v>0.42499999999999999</v>
       </c>
       <c r="J9" s="3">
@@ -2287,7 +2414,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>184</v>
@@ -2355,13 +2482,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
@@ -2377,7 +2504,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
@@ -2391,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="M14" s="9">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="N14" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>2</v>
@@ -2403,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="R14" s="9">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="S14" s="9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="T14" s="9">
         <v>0</v>
@@ -2417,13 +2544,10 @@
       <c r="U14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V14" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>184</v>
@@ -2438,123 +2562,88 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" ref="I15" si="3">J15*K15*M15</f>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="J15" si="4">O15/H15</f>
+        <v>0.5</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K15" si="5">O15/L15</f>
         <v>1</v>
       </c>
       <c r="L15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="9">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="N15" s="16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="S15" s="9">
         <v>0</v>
       </c>
       <c r="T15" s="9">
-        <v>0</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>78</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="U15" s="16">
+        <v>2</v>
+      </c>
+      <c r="V15" s="8"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" ref="I16:I30" si="3">J16*K16*M16</f>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" ref="J16:J30" si="4">O16/H16</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" ref="K16:K30" si="5">O16/L16</f>
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="N16" s="16">
-        <v>-1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="U16" s="16">
-        <v>2</v>
-      </c>
-      <c r="V16" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="V16" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>184</v>
@@ -2562,6 +2651,9 @@
       <c r="C17" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="D17" t="s">
+        <v>298</v>
+      </c>
       <c r="E17" s="3">
         <v>5</v>
       </c>
@@ -2569,31 +2661,31 @@
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="3"/>
-        <v>0.39999999999999997</v>
+        <f t="shared" ref="I17" si="6">J17*K17*M17</f>
+        <v>0.65</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="J17" si="7">O17/H17</f>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K17" si="8">O17/L17</f>
         <v>1</v>
       </c>
       <c r="L17" s="3">
         <v>2</v>
       </c>
       <c r="M17" s="9">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="N17" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
         <v>2</v>
@@ -2602,69 +2694,69 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R17" s="9">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="S17" s="9">
         <v>0</v>
       </c>
       <c r="T17" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U17" s="16">
-        <v>4</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>273</v>
+        <v>0</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V17" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="E18" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>141</v>
+        <v>392</v>
       </c>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="3"/>
-        <v>0.6333333333333333</v>
+        <f>J18*K18*M18</f>
+        <v>0.3666666666666667</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>O18/H18</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
+        <f>O18/L18</f>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" s="9">
-        <v>0.95</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N18" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="3">
         <v>2</v>
@@ -2673,37 +2765,39 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="9">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="S18" s="9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="T18" s="9">
-        <v>0</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V18" s="8"/>
+        <v>0.33</v>
+      </c>
+      <c r="U18" s="16">
+        <v>4</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="E19" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -2712,67 +2806,67 @@
         <v>141</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="3"/>
-        <v>1.7333333333333334</v>
+        <f>J19*K19*M19</f>
+        <v>0.6333333333333333</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
+        <f>O19/H19</f>
+        <v>1</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>O19/L19</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="9">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="N19" s="16">
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P19" s="3">
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
       </c>
       <c r="S19" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T19" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U19" s="16">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="V19" s="8"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E20" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -2781,37 +2875,37 @@
         <v>141</v>
       </c>
       <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <f>J20*K20*M20</f>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="J20" s="3">
+        <f>O20/H20</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K20" s="3">
+        <f>O20/L20</f>
+        <v>2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.71249999999999991</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="N20" s="16">
-        <v>2</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
@@ -2820,28 +2914,28 @@
         <v>0</v>
       </c>
       <c r="T20" s="9">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="U20" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V20" s="8"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E21" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -2850,28 +2944,28 @@
         <v>141</v>
       </c>
       <c r="H21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="3"/>
-        <v>1.35</v>
+        <f>J21*K21*M21</f>
+        <v>0.71249999999999991</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>O21/H21</f>
+        <v>0.75</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f>O21/L21</f>
+        <v>1</v>
       </c>
       <c r="L21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" s="9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N21" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="3">
         <v>3</v>
@@ -2880,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R21" s="9">
         <v>0</v>
@@ -2889,16 +2983,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="9">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="U21" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" s="8"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>184</v>
@@ -2906,8 +3000,11 @@
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
       <c r="E22" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -2919,28 +3016,28 @@
         <v>3</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2666666666666666</v>
+        <f>J22*K22*M22</f>
+        <v>1.35</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <f>O22/H22</f>
+        <v>1</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>O22/L22</f>
+        <v>1.5</v>
       </c>
       <c r="L22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N22" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -2952,31 +3049,31 @@
         <v>0</v>
       </c>
       <c r="S22" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T22" s="9">
-        <v>0</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>78</v>
+        <v>0.67</v>
+      </c>
+      <c r="U22" s="16">
+        <v>3</v>
       </c>
       <c r="V22" s="8"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>341</v>
       </c>
       <c r="E23" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
@@ -2988,28 +3085,28 @@
         <v>3</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>J23*K23*M23</f>
+        <v>1.2666666666666666</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>O23/H23</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>O23/L23</f>
+        <v>2</v>
       </c>
       <c r="L23" s="3">
         <v>1</v>
       </c>
       <c r="M23" s="9">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="N23" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -3021,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T23" s="9">
         <v>0</v>
@@ -3029,28 +3126,26 @@
       <c r="U23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V23" t="s">
-        <v>297</v>
-      </c>
+      <c r="V23" s="8"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="E24" s="3">
         <v>8</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>141</v>
@@ -3059,28 +3154,28 @@
         <v>3</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="3"/>
-        <v>0.21666666666666667</v>
+        <f>J24*K24*M24</f>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <f>O24/H24</f>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>O24/L24</f>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
       </c>
       <c r="M24" s="9">
-        <v>0.65</v>
+        <v>2</v>
       </c>
       <c r="N24" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -3095,86 +3190,51 @@
         <v>0</v>
       </c>
       <c r="T24" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="U24" s="16">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V24" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>322</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="E25" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="3">
-        <v>5</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="3"/>
-        <v>2.16</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L25" s="3">
-        <v>3</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="N25" s="16">
-        <v>6</v>
-      </c>
-      <c r="O25" s="3">
-        <v>6</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V25" s="8" t="s">
-        <v>277</v>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="V25" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>184</v>
@@ -3183,10 +3243,10 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E26" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -3195,37 +3255,37 @@
         <v>141</v>
       </c>
       <c r="H26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="3"/>
-        <v>3.4708333333333337</v>
+        <f>J26*K26*M26</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
+        <f>O26/H26</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="5"/>
-        <v>2.3333333333333335</v>
+        <f>O26/L26</f>
+        <v>2</v>
       </c>
       <c r="L26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26" s="9">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="N26" s="16">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O26" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="9">
         <v>0</v>
@@ -3234,28 +3294,27 @@
         <v>0</v>
       </c>
       <c r="T26" s="9">
-        <v>0</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V26" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="16">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="E27" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -3264,67 +3323,69 @@
         <v>141</v>
       </c>
       <c r="H27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
+        <f>J27*K27*M27</f>
+        <v>2.16</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>O27/H27</f>
+        <v>1.2</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="5"/>
+        <f>O27/L27</f>
         <v>2</v>
       </c>
       <c r="L27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N27" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R27" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S27" s="9">
         <v>0</v>
       </c>
       <c r="T27" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U27" s="16">
-        <v>4</v>
-      </c>
-      <c r="V27" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>279</v>
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
       </c>
       <c r="E28" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="3">
         <v>3</v>
@@ -3336,34 +3397,34 @@
         <v>4</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="3"/>
-        <v>1.9</v>
+        <f>J28*K28*M28</f>
+        <v>3.4708333333333337</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>O28/H28</f>
+        <v>1.75</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>O28/L28</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" s="9">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="N28" s="16">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="O28" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P28" s="3">
         <v>0</v>
       </c>
       <c r="Q28" s="9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R28" s="9">
         <v>0</v>
@@ -3377,28 +3438,26 @@
       <c r="U28" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V28" s="8" t="s">
-        <v>273</v>
-      </c>
+      <c r="V28" s="8"/>
       <c r="W28" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="E29" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
@@ -3407,28 +3466,28 @@
         <v>141</v>
       </c>
       <c r="H29" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2000000000000002</v>
+        <f>J29*K29*M29</f>
+        <v>1.6</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="4"/>
+        <f>O29/H29</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <f>O29/L29</f>
+        <v>2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="9">
         <v>0.8</v>
       </c>
-      <c r="K29" s="3">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0.75</v>
-      </c>
       <c r="N29" s="16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
         <v>4</v>
@@ -3437,30 +3496,28 @@
         <v>0</v>
       </c>
       <c r="Q29" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R29" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S29" s="9">
         <v>0</v>
       </c>
       <c r="T29" s="9">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="U29" s="16">
-        <v>3</v>
-      </c>
-      <c r="V29" t="s">
-        <v>306</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="V29" s="8"/>
       <c r="W29" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>184</v>
@@ -3468,11 +3525,11 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" t="s">
-        <v>188</v>
+      <c r="D30" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="E30" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
@@ -3481,19 +3538,19 @@
         <v>141</v>
       </c>
       <c r="H30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
+        <f>J30*K30*M30</f>
+        <v>1.8</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <f>O30/H30</f>
+        <v>1</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>O30/L30</f>
+        <v>2</v>
       </c>
       <c r="L30" s="3">
         <v>2</v>
@@ -3502,10 +3559,10 @@
         <v>0.9</v>
       </c>
       <c r="N30" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P30" s="3">
         <v>0</v>
@@ -3517,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T30" s="9">
         <v>0</v>
@@ -3526,35 +3583,237 @@
         <v>78</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>328</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="A31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" s="3">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3">
+        <f>J31*K31*M31</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="J31" s="3">
+        <f>O31/H31</f>
+        <v>0.8</v>
+      </c>
+      <c r="K31" s="3">
+        <f>O31/L31</f>
+        <v>2</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N31" s="16">
+        <v>-3</v>
+      </c>
+      <c r="O31" s="3">
+        <v>4</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="U31" s="16">
+        <v>3</v>
+      </c>
+      <c r="V31" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="3">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
+        <f>J32*K32*M32</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="J32" s="3">
+        <f>O32/H32</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <f>O32/L32</f>
+        <v>1.5</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>342</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>345</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
       <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="V34" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>345</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
+      </c>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="V35" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="K37" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD14 W15:XFD15 A16:XFD909090 A15:C15 H15:L15 O15:P15">
-    <cfRule type="expression" dxfId="20" priority="15">
+  <conditionalFormatting sqref="A1:XFD13 W14:XFD14 A14:C14 H14:L14 O14:P14 A15:XFD15 W16:XFD16 A26:V32 A36:XFD909090 A18:V24 E34:XFD35 A33:C35 E33:V33 W18:XFD33 A17:XFD17">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:C25 V25">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:V16">
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3565,11 +3824,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687D88A5-CB1C-45DA-9298-58CF74D03E3F}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3580,16 +3839,16 @@
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="6.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="3" customWidth="1"/>
     <col min="8" max="13" width="8.21875" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.21875" style="16" customWidth="1"/>
     <col min="15" max="16" width="8.21875" style="3" customWidth="1"/>
     <col min="17" max="20" width="8.21875" style="9" customWidth="1"/>
     <col min="21" max="21" width="8.21875" style="16" customWidth="1"/>
-    <col min="22" max="22" width="31.88671875" customWidth="1"/>
+    <col min="22" max="22" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -3656,8 +3915,11 @@
       <c r="V1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="E2" s="5"/>
@@ -3679,7 +3941,7 @@
       <c r="U2" s="14"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="E3" s="5"/>
@@ -3705,7 +3967,7 @@
       <c r="U3" s="15"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="E4" s="5"/>
@@ -3729,7 +3991,7 @@
       <c r="U4" s="15"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="E5" s="5"/>
@@ -3753,7 +4015,7 @@
       <c r="U5" s="15"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="E6" s="5"/>
@@ -3777,7 +4039,7 @@
       </c>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="E7" s="5"/>
@@ -3799,7 +4061,7 @@
       <c r="U7" s="14"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -3822,11 +4084,11 @@
         <v>1</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ref="I8:I20" si="0">J8*K8*M8</f>
+        <f t="shared" ref="I8:I14" si="0">J8*K8*M8</f>
         <v>0.9</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J20" si="1">O8/H8</f>
+        <f t="shared" ref="J8:J14" si="1">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
@@ -3864,7 +4126,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -3929,10 +4191,10 @@
         <v>78</v>
       </c>
       <c r="V9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -3991,13 +4253,13 @@
         <v>0</v>
       </c>
       <c r="T10" s="9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="U10" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -4050,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S11" s="9">
         <v>0</v>
@@ -4062,7 +4324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -4086,7 +4348,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>0.47499999999999998</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
@@ -4100,10 +4362,10 @@
         <v>2</v>
       </c>
       <c r="M12" s="9">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="N12" s="16">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="O12" s="3">
         <v>1</v>
@@ -4127,7 +4389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>218</v>
       </c>
@@ -4192,12 +4454,12 @@
         <v>78</v>
       </c>
       <c r="V13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>183</v>
@@ -4263,77 +4525,32 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>316</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="E15" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="3">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" ref="K15:K20" si="7">O15/L15</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <v>0</v>
-      </c>
-      <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U15" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>183</v>
@@ -4341,8 +4558,11 @@
       <c r="C16" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -4354,46 +4574,46 @@
         <v>3</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333335</v>
+        <f>J16*K16*M16</f>
+        <v>1.1333333333333333</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <f>O16/H16</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
+        <f>O16/L16</f>
+        <v>2</v>
       </c>
       <c r="L16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
         <v>0.75</v>
       </c>
-      <c r="N16" s="16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>5</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>78</v>
+      <c r="U16" s="16">
+        <v>2</v>
       </c>
       <c r="V16" t="s">
         <v>124</v>
@@ -4401,19 +4621,19 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>343</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -4422,176 +4642,176 @@
         <v>141</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="0"/>
+        <f>J17*K17*M17</f>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J17" s="3">
+        <f>O17/H17</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" ref="K17:K20" si="7">O17/L17</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N17" s="16">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <f>J18*K18*M18</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" si="1"/>
+      <c r="J18" s="3">
+        <f>O18/H18</f>
         <v>0.5</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K18" s="3">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="L17" s="3">
-        <v>2</v>
-      </c>
-      <c r="M17" s="9">
+      <c r="L18" s="3">
+        <v>2</v>
+      </c>
+      <c r="M18" s="9">
         <v>0.8</v>
       </c>
-      <c r="N17" s="16">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>1</v>
-      </c>
-      <c r="U17" s="16">
-        <v>3</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="N18" s="16">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>1</v>
+      </c>
+      <c r="U18" s="16">
+        <v>3</v>
+      </c>
+      <c r="V18" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>245</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="3">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="N18" s="16">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="U18" s="16">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="E19" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
+        <f>J19*K19*M19</f>
+        <v>1.3</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>O19/H19</f>
+        <v>1</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="9">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="N19" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P19" s="3">
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
@@ -4600,18 +4820,15 @@
         <v>0</v>
       </c>
       <c r="T19" s="9">
-        <v>0</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V19" t="s">
-        <v>326</v>
+        <v>0.33</v>
+      </c>
+      <c r="U19" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>183</v>
@@ -4620,49 +4837,49 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E20" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>141</v>
+        <v>390</v>
       </c>
       <c r="H20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <f>J20*K20*M20</f>
+        <v>2.8</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>O20/H20</f>
+        <v>2</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L20" s="3">
         <v>2</v>
       </c>
       <c r="M20" s="9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N20" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
@@ -4671,18 +4888,18 @@
         <v>0</v>
       </c>
       <c r="T20" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="U20" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>183</v>
@@ -4707,7 +4924,7 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" ref="I21:I23" si="8">J21*K21*M21</f>
-        <v>0.46666666666666662</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" ref="J21:J23" si="9">O21/H21</f>
@@ -4715,10 +4932,10 @@
       </c>
       <c r="K21" s="3">
         <f t="shared" ref="K21:K23" si="10">O21/L21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="9">
         <v>0.7</v>
@@ -4748,7 +4965,7 @@
         <v>78</v>
       </c>
       <c r="V21" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -4762,7 +4979,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E22" s="3">
         <v>7</v>
@@ -4807,7 +5024,7 @@
         <v>0.1</v>
       </c>
       <c r="R22" s="9">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="S22" s="9">
         <v>0</v>
@@ -4821,7 +5038,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>183</v>
@@ -4887,125 +5104,83 @@
         <v>78</v>
       </c>
       <c r="V23" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>343</v>
       </c>
       <c r="E24" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="3">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <f>J24*K24*M24</f>
-        <v>2.6133333333333333</v>
-      </c>
-      <c r="J24" s="3">
-        <f>O24/H24</f>
-        <v>1.4</v>
-      </c>
-      <c r="K24" s="3">
-        <f>O24/L24</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="N24" s="16">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>7</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U24" s="16">
-        <v>2</v>
+      <c r="V24" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="E25" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="H25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="3">
         <f>J25*K25*M25</f>
-        <v>2.5499999999999998</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J25" s="3">
         <f>O25/H25</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3">
         <f>O25/L25</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25" s="9">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N25" s="16">
         <v>0</v>
       </c>
       <c r="O25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P25" s="3">
         <v>0</v>
@@ -5020,30 +5195,30 @@
         <v>0</v>
       </c>
       <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>78</v>
+        <v>0.33</v>
+      </c>
+      <c r="U25" s="16">
+        <v>3</v>
       </c>
       <c r="V25" t="s">
-        <v>125</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>258</v>
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>177</v>
       </c>
       <c r="E26" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -5052,31 +5227,31 @@
         <v>141</v>
       </c>
       <c r="H26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26" s="3">
         <f>J26*K26*M26</f>
-        <v>3.1999999999999997</v>
+        <v>2.6133333333333333</v>
       </c>
       <c r="J26" s="3">
         <f>O26/H26</f>
-        <v>1.3333333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="K26" s="3">
         <f>O26/L26</f>
-        <v>4</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="N26" s="16">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -5091,30 +5266,27 @@
         <v>0</v>
       </c>
       <c r="T26" s="9">
-        <v>0</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V26" t="s">
-        <v>124</v>
+        <v>0.33</v>
+      </c>
+      <c r="U26" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E27" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -5123,31 +5295,31 @@
         <v>141</v>
       </c>
       <c r="H27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="3">
         <f>J27*K27*M27</f>
-        <v>2.1333333333333333</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J27" s="3">
         <f>O27/H27</f>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="K27" s="3">
         <f>O27/L27</f>
         <v>2</v>
       </c>
       <c r="L27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="9">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="N27" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -5168,12 +5340,12 @@
         <v>78</v>
       </c>
       <c r="V27" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>183</v>
@@ -5181,47 +5353,47 @@
       <c r="C28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D28" t="s">
-        <v>257</v>
+      <c r="D28" s="18" t="s">
+        <v>253</v>
       </c>
       <c r="E28" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28:I30" si="11">J28*K28*M28</f>
-        <v>4.0500000000000007</v>
+        <f>J28*K28*M28</f>
+        <v>3.1999999999999997</v>
       </c>
       <c r="J28" s="3">
         <f>O28/H28</f>
-        <v>1.8</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" ref="K28:K30" si="12">O28/L28</f>
-        <v>3</v>
+        <f>O28/L28</f>
+        <v>4</v>
       </c>
       <c r="L28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" s="9">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="N28" s="16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O28" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P28" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="9">
         <v>0</v>
@@ -5233,30 +5405,33 @@
         <v>0</v>
       </c>
       <c r="T28" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U28" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>320</v>
+        <v>191</v>
       </c>
       <c r="E29" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>141</v>
@@ -5265,122 +5440,585 @@
         <v>3</v>
       </c>
       <c r="I29" s="3">
+        <f>J29*K29*M29</f>
+        <v>1.8666666666666665</v>
+      </c>
+      <c r="J29" s="3">
+        <f>O29/H29</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K29" s="3">
+        <f>O29/L29</f>
+        <v>2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="N29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3">
+        <f>J30*K30*M30</f>
+        <v>3.7500000000000004</v>
+      </c>
+      <c r="J30" s="3">
+        <f>O30/H30</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K30" s="3">
+        <f>O30/L30</f>
+        <v>2.5</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>5</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="3">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
+        <f>J31*K31*M31</f>
+        <v>0.1875</v>
+      </c>
+      <c r="J31" s="3">
+        <f>O31/H31</f>
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="3">
+        <f>O31/L31</f>
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="3">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <f>J32*K32*M32</f>
+        <v>1.8</v>
+      </c>
+      <c r="J32" s="3">
+        <f>O32/H32</f>
+        <v>0.75</v>
+      </c>
+      <c r="K32" s="3">
+        <f>O32/L32</f>
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="U32" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" s="3">
+        <v>16</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" ref="I34:I37" si="11">J34*K34*M34</f>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="J34" s="3">
+        <f>O34/H34</f>
+        <v>1.8</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" ref="K34:K37" si="12">O34/L34</f>
+        <v>3</v>
+      </c>
+      <c r="L34" s="3">
+        <v>3</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N34" s="16">
+        <v>-3</v>
+      </c>
+      <c r="O34" s="3">
+        <v>9</v>
+      </c>
+      <c r="P34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="U34" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3">
         <f t="shared" si="11"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="J29" s="3">
-        <f>O29/H29</f>
+      <c r="J35" s="3">
+        <f>O35/H35</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K35" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="9">
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="9">
         <v>0.95</v>
       </c>
-      <c r="N29" s="16">
-        <v>1</v>
-      </c>
-      <c r="O29" s="3">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
+      <c r="N35" s="16">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
         <v>0.05</v>
       </c>
-      <c r="R29" s="9">
-        <v>0</v>
-      </c>
-      <c r="S29" s="9">
-        <v>0</v>
-      </c>
-      <c r="T29" s="9">
-        <v>0</v>
-      </c>
-      <c r="U29" s="16" t="s">
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
+      <c r="U35" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>323</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="V35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="3">
+      <c r="D36" t="s">
+        <v>344</v>
+      </c>
+      <c r="E36" s="3">
         <v>14</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F36" s="3">
         <v>4</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="3">
-        <v>3</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="H36" s="3">
+        <v>3</v>
+      </c>
+      <c r="I36" s="3">
         <f t="shared" si="11"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="J30" s="3">
-        <f>O30/H30</f>
+      <c r="J36" s="3">
+        <f>O36/H36</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K36" s="3">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L30" s="3">
-        <v>2</v>
-      </c>
-      <c r="M30" s="9">
+      <c r="L36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="9">
         <v>0.8</v>
       </c>
-      <c r="N30" s="16">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>2</v>
-      </c>
-      <c r="P30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>0</v>
-      </c>
-      <c r="R30" s="9">
-        <v>0</v>
-      </c>
-      <c r="S30" s="9">
-        <v>0</v>
-      </c>
-      <c r="T30" s="9">
-        <v>0</v>
-      </c>
-      <c r="U30" s="16" t="s">
+      <c r="N36" s="16">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>2</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V30" t="s">
-        <v>324</v>
+      <c r="V36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>356</v>
+      </c>
+      <c r="E37" s="3">
+        <v>16</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="11"/>
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="J37" s="3">
+        <f>O37/H37</f>
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N37" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O37" s="3">
+        <v>3</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
+        <v>344</v>
+      </c>
+      <c r="E38" s="3">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="V38" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD22 A33:XFD909090 W23:XFD32 A24:V32 A23:D23 V23">
-    <cfRule type="expression" dxfId="19" priority="16">
+  <conditionalFormatting sqref="A1:XFD1000000">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5390,11 +6028,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7DBCF5-5AAC-4F6F-A5D2-F2CF7C627D4D}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5405,7 +6043,7 @@
     <col min="4" max="4" width="21.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="4.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="3" customWidth="1"/>
     <col min="8" max="13" width="8.109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.109375" style="16" customWidth="1"/>
     <col min="15" max="16" width="8.109375" style="3" customWidth="1"/>
@@ -5414,7 +6052,7 @@
     <col min="22" max="22" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -5481,8 +6119,11 @@
       <c r="V1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -5505,7 +6146,7 @@
       <c r="U2" s="14"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5530,7 +6171,7 @@
       <c r="U3" s="14"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5555,9 +6196,9 @@
       <c r="U4" s="14"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5582,7 +6223,7 @@
       <c r="U5" s="14"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5607,7 +6248,7 @@
       </c>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5630,7 +6271,7 @@
       <c r="U7" s="14"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -5657,11 +6298,11 @@
         <v>0.8</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J21" si="1">O8/H8</f>
+        <f t="shared" ref="J8:J24" si="1">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" ref="K8:K21" si="2">O8/L8</f>
+        <f t="shared" ref="K8:K24" si="2">O8/L8</f>
         <v>1</v>
       </c>
       <c r="L8" s="3">
@@ -5686,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="9">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="T8" s="9">
         <v>0.33</v>
@@ -5695,7 +6336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -5760,7 +6401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -5825,12 +6466,12 @@
         <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>182</v>
@@ -5869,7 +6510,7 @@
         <v>0.95</v>
       </c>
       <c r="N11" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
@@ -5884,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="9">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="T11" s="9">
         <v>0.5</v>
@@ -5893,7 +6534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>192</v>
       </c>
@@ -5916,8 +6557,8 @@
         <v>2</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" ref="I12:I19" si="3">J12*K12*M12</f>
-        <v>0.7</v>
+        <f t="shared" ref="I12:I21" si="3">J12*K12*M12</f>
+        <v>0.75</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
@@ -5931,10 +6572,10 @@
         <v>2</v>
       </c>
       <c r="M12" s="9">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="N12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="3">
         <v>2</v>
@@ -5958,10 +6599,10 @@
         <v>3</v>
       </c>
       <c r="V12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -6026,12 +6667,12 @@
         <v>78</v>
       </c>
       <c r="V13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>182</v>
@@ -6088,33 +6729,30 @@
         <v>0</v>
       </c>
       <c r="T14" s="9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U14" s="16">
         <v>2</v>
       </c>
       <c r="V14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>352</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E15" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>141</v>
@@ -6124,39 +6762,39 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="N15" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>2</v>
-      </c>
-      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="16">
         <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="R15" s="9">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="S15" s="9">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="T15" s="9">
         <v>0</v>
@@ -6165,80 +6803,33 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>217</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D16"/>
       <c r="E16" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2</v>
-      </c>
-      <c r="M16" s="9">
-        <v>2</v>
-      </c>
-      <c r="N16" s="16">
-        <v>-7</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="V16" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>182</v>
@@ -6247,10 +6838,10 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -6263,65 +6854,62 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="3"/>
-        <v>0.42499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="9">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="N17" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="R17" s="9">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="S17" s="9">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="T17" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U17" s="16">
-        <v>5</v>
-      </c>
-      <c r="V17" t="s">
-        <v>124</v>
+        <v>0</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="E18" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -6334,29 +6922,29 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="3"/>
-        <v>0.56666666666666665</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>2</v>
       </c>
       <c r="M18" s="9">
-        <v>0.85</v>
+        <v>2</v>
       </c>
       <c r="N18" s="16">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="O18" s="3">
-        <v>2</v>
-      </c>
-      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -6375,12 +6963,12 @@
         <v>78</v>
       </c>
       <c r="V18" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>182</v>
@@ -6389,10 +6977,10 @@
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="E19" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -6401,63 +6989,66 @@
         <v>141</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="9">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="N19" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" s="3">
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
       </c>
       <c r="S19" s="9">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="T19" s="9">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="U19" s="16">
         <v>5</v>
       </c>
+      <c r="V19" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="E20" s="3">
         <v>7</v>
@@ -6469,34 +7060,34 @@
         <v>141</v>
       </c>
       <c r="H20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20:I21" si="4">J20*K20*M20</f>
-        <v>0.84375</v>
+        <f t="shared" si="3"/>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
         <v>2</v>
       </c>
       <c r="M20" s="9">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="N20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>3</v>
-      </c>
-      <c r="P20" s="16">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="9">
         <v>0</v>
@@ -6508,27 +7099,27 @@
         <v>0</v>
       </c>
       <c r="T20" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="U20" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>192</v>
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="E21" s="3">
         <v>8</v>
@@ -6543,343 +7134,677 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="N21" s="16">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="U21" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:I24" si="4">J22*K22*M22</f>
+        <v>0.84375</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N22" s="16">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3</v>
+      </c>
+      <c r="P22" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="U22" s="16">
+        <v>3</v>
+      </c>
+      <c r="V22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
         <f t="shared" si="4"/>
         <v>1.8666666666666665</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J23" s="3">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K23" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
-      <c r="M21" s="9">
+      <c r="L23" s="3">
+        <v>2</v>
+      </c>
+      <c r="M23" s="9">
         <v>0.7</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N23" s="16">
         <v>-2</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O23" s="3">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0</v>
-      </c>
-      <c r="R21" s="9">
-        <v>0</v>
-      </c>
-      <c r="S21" s="9">
-        <v>0</v>
-      </c>
-      <c r="T21" s="9">
-        <v>0</v>
-      </c>
-      <c r="U21" s="16" t="s">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="V23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N24" s="16">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="U24" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="V25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="3">
         <v>13</v>
       </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H26" s="3">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
-        <f t="shared" ref="I22:I24" si="5">J22*K22*M22</f>
+      <c r="I26" s="3">
+        <f t="shared" ref="I26:I28" si="5">J26*K26*M26</f>
         <v>2.2799999999999998</v>
       </c>
-      <c r="J22" s="3">
-        <f>O22/H22</f>
+      <c r="J26" s="3">
+        <f>O26/H26</f>
         <v>1.2</v>
       </c>
-      <c r="K22" s="3">
-        <f>O22/L22</f>
-        <v>2</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3</v>
-      </c>
-      <c r="M22" s="9">
+      <c r="K26" s="3">
+        <f>O26/L26</f>
+        <v>2</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3</v>
+      </c>
+      <c r="M26" s="9">
         <v>0.95</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N26" s="16">
         <v>-6</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O26" s="3">
         <v>6</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
-        <v>1</v>
-      </c>
-      <c r="U22" s="16">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>1</v>
+      </c>
+      <c r="U26" s="16">
         <v>5</v>
       </c>
-      <c r="V22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="V26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D27" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="3">
         <v>11</v>
       </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
         <f t="shared" si="5"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="J23" s="3">
-        <f>O23/H23</f>
+      <c r="J27" s="3">
+        <f>O27/H27</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K23" s="3">
-        <f>O23/L23</f>
+      <c r="K27" s="3">
+        <f>O27/L27</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="L23" s="3">
-        <v>3</v>
-      </c>
-      <c r="M23" s="9">
+      <c r="L27" s="3">
+        <v>3</v>
+      </c>
+      <c r="M27" s="9">
         <v>0.9</v>
       </c>
-      <c r="N23" s="16">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="N27" s="16">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>4</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
         <v>0.1</v>
       </c>
-      <c r="R23" s="9">
-        <v>0</v>
-      </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
         <v>0.75</v>
       </c>
-      <c r="U23" s="16">
-        <v>3</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="U27" s="16">
+        <v>3</v>
+      </c>
+      <c r="V27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>287</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="E28" s="3">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <f>O28/H28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f>O28/L28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9">
+        <v>2</v>
+      </c>
+      <c r="N28" s="16">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E24" s="3">
-        <v>12</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="D29" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <f>O24/H24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <f>O24/L24</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="9">
-        <v>2</v>
-      </c>
-      <c r="N24" s="16">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <v>0</v>
-      </c>
-      <c r="U24" s="16" t="s">
+      <c r="H29" s="3">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3">
+        <f>J29*K29*M29</f>
+        <v>0.85</v>
+      </c>
+      <c r="J29" s="3">
+        <f>O29/H29</f>
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="3">
+        <f>O29/L29</f>
+        <v>2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="N29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>2</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>298</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="V29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
+        <f>J30*K30*M30</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J30" s="3">
+        <f>O30/H30</f>
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="3">
+        <f>O30/L30</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="N30" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F32" s="3">
         <v>4</v>
       </c>
-      <c r="I25" s="3">
-        <f>J25*K25*M25</f>
-        <v>0.85</v>
-      </c>
-      <c r="J25" s="3">
-        <f>O25/H25</f>
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="3">
-        <f>O25/L25</f>
-        <v>2</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="N25" s="16">
-        <v>-1</v>
-      </c>
-      <c r="O25" s="3">
-        <v>2</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V25" t="s">
-        <v>299</v>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="L32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="V32" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD20 A24:XFD24 W21:XFD23 A22:V23 A21 A26:XFD909090 A25:D25 W25:XFD25 V21">
-    <cfRule type="expression" dxfId="18" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:V25">
-    <cfRule type="expression" dxfId="17" priority="1">
+  <conditionalFormatting sqref="A1:XFD1000001">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6890,11 +7815,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C332C6-0F15-4384-8259-DE52E9979FA5}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6905,7 +7830,7 @@
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="7.109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="4.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="3" customWidth="1"/>
     <col min="8" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="8.21875" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.21875" style="16" customWidth="1"/>
@@ -6915,7 +7840,7 @@
     <col min="22" max="22" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -6982,8 +7907,11 @@
       <c r="V1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="E2" s="5"/>
@@ -7005,7 +7933,7 @@
       <c r="U2" s="14"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="E3" s="5"/>
@@ -7029,7 +7957,7 @@
       <c r="U3" s="14"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="E4" s="5"/>
@@ -7053,7 +7981,7 @@
       <c r="U4" s="15"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="E5" s="5"/>
@@ -7077,7 +8005,7 @@
       <c r="U5" s="15"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="E6" s="5"/>
@@ -7101,7 +8029,7 @@
       </c>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="E7" s="5"/>
@@ -7123,7 +8051,7 @@
       <c r="U7" s="14"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -7150,7 +8078,7 @@
         <v>0.75</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J21" si="1">O8/H8</f>
+        <f t="shared" ref="J8:J23" si="1">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
@@ -7188,7 +8116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -7253,7 +8181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -7264,7 +8192,7 @@
         <v>135</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -7306,7 +8234,7 @@
         <v>0.05</v>
       </c>
       <c r="R10" s="9">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="S10" s="9">
         <v>0</v>
@@ -7315,12 +8243,12 @@
         <v>0.75</v>
       </c>
       <c r="U10" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>367</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>181</v>
@@ -7383,10 +8311,10 @@
         <v>78</v>
       </c>
       <c r="V11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -7451,12 +8379,12 @@
         <v>78</v>
       </c>
       <c r="V12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>181</v>
@@ -7465,7 +8393,7 @@
         <v>135</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -7477,15 +8405,15 @@
         <v>2</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="0"/>
+        <f>J13*K13*M13</f>
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="1"/>
+        <f>O13/H13</f>
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
+        <f>O13/L13</f>
         <v>0</v>
       </c>
       <c r="L13" s="3">
@@ -7495,7 +8423,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3">
         <v>0</v>
@@ -7504,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R13" s="9">
         <v>0</v>
@@ -7513,18 +8441,15 @@
         <v>0</v>
       </c>
       <c r="T13" s="9">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="U13" s="16">
         <v>3</v>
       </c>
-      <c r="V13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>181</v>
@@ -7533,7 +8458,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -7586,25 +8511,25 @@
       <c r="U14" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>366</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>141</v>
@@ -7613,134 +8538,93 @@
         <v>3</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" ref="I15:I21" si="3">J15*K15*M15</f>
-        <v>0.9</v>
+        <f t="shared" ref="I15" si="3">J15*K15*M15</f>
+        <v>1.2</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="J15" si="4">O15/H15</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K15" s="3">
-        <f>O15/L15</f>
-        <v>1</v>
+        <f t="shared" ref="K15" si="5">O15/L15</f>
+        <v>2</v>
       </c>
       <c r="L15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15" s="9">
         <v>0.9</v>
       </c>
       <c r="N15" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="S15" s="9">
         <v>0</v>
       </c>
       <c r="T15" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="U15" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <f>O16/L16</f>
-        <v>1.5</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="N16" s="16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>3</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U16" s="16">
-        <v>2</v>
-      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
       <c r="V16" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -7752,63 +8636,63 @@
         <v>3</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
+        <f t="shared" ref="I17:I23" si="6">J17*K17*M17</f>
+        <v>0.9</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
         <f>O17/L17</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="9">
         <v>0.9</v>
       </c>
       <c r="N17" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="R17" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S17" s="9">
         <v>0</v>
       </c>
       <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>78</v>
+        <v>0.83</v>
+      </c>
+      <c r="U17" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="E18" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -7820,28 +8704,28 @@
         <v>3</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
         <f>O18/L18</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="9">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="N18" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -7850,33 +8734,36 @@
         <v>0</v>
       </c>
       <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
         <v>0.75</v>
       </c>
-      <c r="S18" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>78</v>
+      <c r="U18" s="16">
+        <v>2</v>
       </c>
       <c r="V18" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>151</v>
       </c>
       <c r="E19" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -7888,34 +8775,34 @@
         <v>3</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="3"/>
-        <v>1.4222222222222223</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" ref="K19" si="4">O19/L19</f>
-        <v>1.3333333333333333</v>
+        <f>O19/L19</f>
+        <v>0</v>
       </c>
       <c r="L19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" s="9">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="N19" s="16">
         <v>1</v>
       </c>
       <c r="O19" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
@@ -7924,24 +8811,27 @@
         <v>0</v>
       </c>
       <c r="T19" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="U19" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
       </c>
       <c r="E20" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -7953,7 +8843,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J20" s="3">
@@ -7961,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:K21" si="5">O20/L20</f>
+        <f>O20/L20</f>
         <v>0</v>
       </c>
       <c r="L20" s="3">
@@ -7971,7 +8861,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="16">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -7980,13 +8870,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="R20" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S20" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T20" s="9">
         <v>0</v>
@@ -7995,12 +8885,12 @@
         <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>181</v>
@@ -8009,7 +8899,7 @@
         <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="E21" s="3">
         <v>7</v>
@@ -8024,34 +8914,34 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="3"/>
-        <v>0.35</v>
+        <f t="shared" si="6"/>
+        <v>1.4222222222222223</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" ref="K21" si="7">O21/L21</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" s="9">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="N21" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <v>0</v>
@@ -8060,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U21" s="16">
         <v>3</v>
@@ -8068,108 +8958,111 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>348</v>
       </c>
       <c r="E22" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22:I27" si="6">J22*K22*M22</f>
-        <v>1.666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22:J27" si="7">O22/H22</f>
-        <v>1.25</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" ref="K22:K27" si="8">O22/L22</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" ref="K22:K23" si="8">O22/L22</f>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22" s="9">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="N22" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O22" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <v>0.05</v>
+        <v>-0.05</v>
       </c>
       <c r="R22" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S22" s="9">
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="U22" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="E23" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L23" s="3">
         <v>2</v>
@@ -8181,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -8190,39 +9083,39 @@
         <v>0</v>
       </c>
       <c r="R23" s="9">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="S23" s="9">
         <v>0</v>
       </c>
       <c r="T23" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U23" s="16">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="V23" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>386</v>
       </c>
       <c r="E24" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>141</v>
@@ -8231,34 +9124,34 @@
         <v>4</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>J24*K24*M24</f>
+        <v>0.25</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>O24/H24</f>
+        <v>0.25</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>O24/L24</f>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
       </c>
       <c r="M24" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="16">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="9">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="R24" s="9">
         <v>0</v>
@@ -8267,101 +9160,63 @@
         <v>0</v>
       </c>
       <c r="T24" s="9">
-        <v>0</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>78</v>
+        <v>0.67</v>
+      </c>
+      <c r="U24" s="16">
+        <v>3</v>
       </c>
       <c r="V24" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="E25" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="9">
-        <v>2</v>
-      </c>
-      <c r="N25" s="16">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>78</v>
-      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
       <c r="V25" t="s">
-        <v>225</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="E26" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -8370,69 +9225,66 @@
         <v>141</v>
       </c>
       <c r="H26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="I26:I32" si="9">J26*K26*M26</f>
+        <v>1.666666666666667</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="J26:J32" si="10">O26/H26</f>
+        <v>1.25</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="K26:K32" si="11">O26/L26</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="L26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" s="9">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="N26" s="16">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R26" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S26" s="9">
         <v>0</v>
       </c>
       <c r="T26" s="9">
-        <v>0</v>
-      </c>
-      <c r="U26" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V26" t="s">
-        <v>325</v>
+        <v>0.25</v>
+      </c>
+      <c r="U26" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E27" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -8441,31 +9293,31 @@
         <v>141</v>
       </c>
       <c r="H27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="6"/>
-        <v>1.1333333333333333</v>
+        <f t="shared" si="9"/>
+        <v>1.5</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="L27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="9">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="N27" s="16">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -8480,18 +9332,89 @@
         <v>0</v>
       </c>
       <c r="T27" s="9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U27" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9">
+        <v>2</v>
+      </c>
+      <c r="N28" s="16">
+        <v>-3</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s">
+        <v>305</v>
+      </c>
+    </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>181</v>
@@ -8500,75 +9423,403 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>387</v>
       </c>
       <c r="E29" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
+        <v>2</v>
+      </c>
+      <c r="N29" s="16">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="3">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9">
+        <v>2</v>
+      </c>
+      <c r="N30" s="16">
+        <v>-9</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="3">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="9"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="10"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="N31" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O31" s="3">
+        <v>2</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U31" s="16">
+        <v>3</v>
+      </c>
+      <c r="V31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="3">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="9"/>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N32" s="16">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>350</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="3">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <f>J29*K29*M29</f>
+      <c r="G34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4</v>
+      </c>
+      <c r="I34" s="3">
+        <f>J34*K34*M34</f>
         <v>1.3</v>
       </c>
-      <c r="J29" s="3">
-        <f>O29/H29</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="3">
-        <f>O29/L29</f>
-        <v>2</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2</v>
-      </c>
-      <c r="M29" s="9">
+      <c r="J34" s="3">
+        <f>O34/H34</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <f>O34/L34</f>
+        <v>2</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2</v>
+      </c>
+      <c r="M34" s="9">
         <v>0.65</v>
       </c>
-      <c r="N29" s="16">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="N34" s="16">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>0</v>
-      </c>
-      <c r="R29" s="9">
-        <v>0</v>
-      </c>
-      <c r="S29" s="9">
-        <v>0</v>
-      </c>
-      <c r="T29" s="9">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
         <v>0.83</v>
       </c>
-      <c r="U29" s="16">
+      <c r="U34" s="16">
         <v>6</v>
       </c>
-      <c r="V29" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K31" s="3"/>
+      <c r="V34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="9"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>349</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="V36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K37" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD999999">
-    <cfRule type="expression" dxfId="16" priority="11">
+  <conditionalFormatting sqref="A1:XFD14 A15:U15 W15:XFD15 A16:XFD16 A17:U17 W17:XFD17 A18:XFD18 A19:U19 W19:XFD19 A20:XFD20 A21:U21 W21:XFD21 A22:XFD1000001">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8578,11 +9829,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B17465-ACB7-4C9B-A677-E98F4D2C2B83}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8761,7 +10012,7 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="T5" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="7"/>
@@ -8818,16 +10069,16 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3">
         <v>5</v>
@@ -8836,19 +10087,19 @@
         <v>141</v>
       </c>
       <c r="H8" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ref="I8" si="0">J8*K8</f>
-        <v>5.333333333333333</v>
+        <f>J8*K8*M8</f>
+        <v>3.6642857142857146</v>
       </c>
       <c r="J8" s="3">
         <f>O8/H8</f>
-        <v>1.3333333333333333</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="K8" s="3">
         <f>O8/L8</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>3</v>
@@ -8860,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -8883,16 +10134,16 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3">
         <v>5</v>
@@ -8910,16 +10161,16 @@
     </row>
     <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>239</v>
+        <v>383</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3">
         <v>5</v>
@@ -8928,21 +10179,21 @@
         <v>141</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>240</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
@@ -8950,19 +10201,22 @@
       <c r="G11" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="H11" s="8" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
@@ -8973,16 +10227,16 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3">
         <v>5</v>
@@ -8993,16 +10247,16 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3">
         <v>5</v>
@@ -9013,16 +10267,16 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3">
         <v>5</v>
@@ -9033,16 +10287,16 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>375</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3">
         <v>5</v>
@@ -9051,18 +10305,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3">
         <v>5</v>
@@ -9071,18 +10325,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3">
         <v>5</v>
@@ -9090,64 +10344,27 @@
       <c r="G18" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="3">
-        <v>9</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" ref="I18" si="1">J18*K18</f>
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <f>O18/H18</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <f>O18/L18</f>
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>9</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H18" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>385</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
@@ -9155,53 +10372,110 @@
       <c r="G19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="S19" s="9">
-        <v>1</v>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A10:B10 C15:C19 A16:B16 A1:C8 A20:C99999 C9:C11 A18:B20 H1:XFD4 H5:R5 T5:XFD5 A11 A12:C14 A15 A17 H6:XFD99999">
-    <cfRule type="expression" dxfId="15" priority="15">
+  <conditionalFormatting sqref="A20:XFD99999 I19:XFD19 A1:XFD18 A19">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="14" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="13" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="12" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:G909090">
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F1014 F1:F25">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9346,7 +10620,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>214</v>

--- a/rpg.xlsx
+++ b/rpg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jane Wharton\Desktop\gladius-et-scutum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636F647-6821-4AA1-8B50-D9799265B78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F44390-8EB7-4220-82AC-A50E1B6AF1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{66B7849A-FFD3-4EDB-BD16-FC5287445CF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{66B7849A-FFD3-4EDB-BD16-FC5287445CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities-Fire" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="404">
   <si>
     <t>Weapon</t>
   </si>
@@ -1105,9 +1105,6 @@
     <t>Foggy Step</t>
   </si>
   <si>
-    <t>Disarm 90%</t>
-  </si>
-  <si>
     <t>Solid Guard</t>
   </si>
   <si>
@@ -1120,9 +1117,6 @@
     <t>Destroy Weapon 50%; Disarm 100%</t>
   </si>
   <si>
-    <t>Only works if foe hits after using on this turn</t>
-  </si>
-  <si>
     <t>Wide EVA +5 for 6 turns</t>
   </si>
   <si>
@@ -1210,9 +1204,6 @@
     <t>Heal, Downpour</t>
   </si>
   <si>
-    <t>Poison Spray</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -1225,7 +1216,46 @@
     <t>Weighted Net</t>
   </si>
   <si>
-    <t>Pierce 4; Only works if enemy has &gt;= 2 Defense</t>
+    <t>Spore Cloud</t>
+  </si>
+  <si>
+    <t>Pierce 1; Damage +1 while Short</t>
+  </si>
+  <si>
+    <t>Pierce 1; Only works if foe hits after using on this turn</t>
+  </si>
+  <si>
+    <t>Damage and Pierce scales with target's Defense</t>
+  </si>
+  <si>
+    <t>75% chance to cause Toxic for 6 turns</t>
+  </si>
+  <si>
+    <t>Mycotoxin</t>
+  </si>
+  <si>
+    <t>Mycelium Rave</t>
+  </si>
+  <si>
+    <t>40% chance target is Toxic for 3 turns</t>
+  </si>
+  <si>
+    <t>Poison Diffusion</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>Hits twice</t>
+  </si>
+  <si>
+    <t>Wide EVA +5% for 6 turns</t>
+  </si>
+  <si>
+    <t>Aether</t>
+  </si>
+  <si>
+    <t>Disarm 83%</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1375,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1413,54 +1455,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1847,11 +1841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670DB705-CC0B-41F0-BDA0-B9F22D5E773F}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1941,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2642,79 +2636,19 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" ref="I17" si="6">J17*K17*M17</f>
-        <v>0.65</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" ref="J17" si="7">O17/H17</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" ref="K17" si="8">O17/L17</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="N17" s="16">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V17" t="s">
-        <v>303</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>184</v>
@@ -2723,7 +2657,7 @@
         <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
@@ -2732,31 +2666,31 @@
         <v>2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>392</v>
+        <v>141</v>
       </c>
       <c r="H18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3">
-        <f>J18*K18*M18</f>
-        <v>0.3666666666666667</v>
+        <f t="shared" ref="I18" si="6">J18*K18*M18</f>
+        <v>0.65</v>
       </c>
       <c r="J18" s="3">
-        <f>O18/H18</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="J18" si="7">O18/H18</f>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f>O18/L18</f>
+        <f t="shared" ref="K18" si="8">O18/L18</f>
         <v>1</v>
       </c>
       <c r="L18" s="3">
         <v>2</v>
       </c>
       <c r="M18" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="N18" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3">
         <v>2</v>
@@ -2765,69 +2699,69 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R18" s="9">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="S18" s="9">
         <v>0</v>
       </c>
       <c r="T18" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U18" s="16">
-        <v>4</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>266</v>
+        <v>0</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="E19" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>141</v>
+        <v>389</v>
       </c>
       <c r="H19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="3">
         <f>J19*K19*M19</f>
-        <v>0.6333333333333333</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="J19" s="3">
         <f>O19/H19</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K19" s="3">
         <f>O19/L19</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" s="9">
-        <v>0.95</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N19" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O19" s="3">
         <v>2</v>
@@ -2836,37 +2770,39 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="S19" s="9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="T19" s="9">
-        <v>0</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V19" s="8"/>
+        <v>0.33</v>
+      </c>
+      <c r="U19" s="16">
+        <v>4</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="E20" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -2875,67 +2811,67 @@
         <v>141</v>
       </c>
       <c r="H20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3">
         <f>J20*K20*M20</f>
-        <v>1.7333333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="J20" s="3">
         <f>O20/H20</f>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
         <f>O20/L20</f>
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" s="9">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="N20" s="16">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
       </c>
       <c r="S20" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T20" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U20" s="16">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="V20" s="8"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -2944,37 +2880,37 @@
         <v>141</v>
       </c>
       <c r="H21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
         <f>J21*K21*M21</f>
-        <v>0.71249999999999991</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="J21" s="3">
         <f>O21/H21</f>
-        <v>0.75</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K21" s="3">
         <f>O21/L21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21" s="9">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="N21" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <v>0</v>
@@ -2983,28 +2919,28 @@
         <v>0</v>
       </c>
       <c r="T21" s="9">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="U21" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V21" s="8"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E22" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -3013,28 +2949,28 @@
         <v>141</v>
       </c>
       <c r="H22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <f>J22*K22*M22</f>
-        <v>1.35</v>
+        <v>0.71249999999999991</v>
       </c>
       <c r="J22" s="3">
         <f>O22/H22</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K22" s="3">
         <f>O22/L22</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" s="9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N22" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" s="3">
         <v>3</v>
@@ -3043,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R22" s="9">
         <v>0</v>
@@ -3052,16 +2988,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="U22" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V22" s="8"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>184</v>
@@ -3070,10 +3006,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>341</v>
+        <v>143</v>
       </c>
       <c r="E23" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
@@ -3086,27 +3022,27 @@
       </c>
       <c r="I23" s="3">
         <f>J23*K23*M23</f>
-        <v>1.2666666666666666</v>
+        <v>1.35</v>
       </c>
       <c r="J23" s="3">
         <f>O23/H23</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3">
         <f>O23/L23</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N23" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -3118,31 +3054,31 @@
         <v>0</v>
       </c>
       <c r="S23" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>78</v>
+        <v>0.67</v>
+      </c>
+      <c r="U23" s="16">
+        <v>3</v>
       </c>
       <c r="V23" s="8"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>341</v>
       </c>
       <c r="E24" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -3155,27 +3091,27 @@
       </c>
       <c r="I24" s="3">
         <f>J24*K24*M24</f>
-        <v>0</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="J24" s="3">
         <f>O24/H24</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K24" s="3">
         <f>O24/L24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
       </c>
       <c r="M24" s="9">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="N24" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -3187,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T24" s="9">
         <v>0</v>
@@ -3195,25 +3131,23 @@
       <c r="U24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V24" t="s">
-        <v>287</v>
-      </c>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="E25" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
@@ -3221,159 +3155,102 @@
       <c r="G25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
+        <f>J25*K25*M25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <f>O25/H25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <f>O25/L25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
+        <v>2</v>
+      </c>
+      <c r="N25" s="16">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="V25" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="E26" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="3">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3">
-        <f>J26*K26*M26</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="J26" s="3">
-        <f>O26/H26</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K26" s="3">
-        <f>O26/L26</f>
-        <v>2</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="N26" s="16">
-        <v>-1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>2</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>0</v>
-      </c>
-      <c r="R26" s="9">
-        <v>0</v>
-      </c>
-      <c r="S26" s="9">
-        <v>0</v>
-      </c>
-      <c r="T26" s="9">
-        <v>1</v>
-      </c>
-      <c r="U26" s="16">
-        <v>6</v>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="V26" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" t="s">
-        <v>272</v>
-      </c>
-      <c r="E27" s="3">
-        <v>12</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="3">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <f>J27*K27*M27</f>
-        <v>2.16</v>
-      </c>
-      <c r="J27" s="3">
-        <f>O27/H27</f>
-        <v>1.2</v>
-      </c>
-      <c r="K27" s="3">
-        <f>O27/L27</f>
-        <v>2</v>
-      </c>
-      <c r="L27" s="3">
-        <v>3</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="N27" s="16">
-        <v>6</v>
-      </c>
-      <c r="O27" s="3">
-        <v>6</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>0</v>
-      </c>
-      <c r="R27" s="9">
-        <v>0</v>
-      </c>
-      <c r="S27" s="9">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9">
-        <v>0</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V27" s="8" t="s">
-        <v>270</v>
-      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>184</v>
@@ -3382,10 +3259,10 @@
         <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E28" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F28" s="3">
         <v>3</v>
@@ -3394,37 +3271,37 @@
         <v>141</v>
       </c>
       <c r="H28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" s="3">
         <f>J28*K28*M28</f>
-        <v>3.4708333333333337</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="J28" s="3">
         <f>O28/H28</f>
-        <v>1.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K28" s="3">
         <f>O28/L28</f>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="L28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" s="9">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="N28" s="16">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O28" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P28" s="3">
         <v>0</v>
       </c>
       <c r="Q28" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="9">
         <v>0</v>
@@ -3433,31 +3310,27 @@
         <v>0</v>
       </c>
       <c r="T28" s="9">
-        <v>0</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V28" s="8"/>
-      <c r="W28" t="s">
-        <v>300</v>
+        <v>1</v>
+      </c>
+      <c r="U28" s="16">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="E29" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
@@ -3466,70 +3339,69 @@
         <v>141</v>
       </c>
       <c r="H29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" s="3">
         <f>J29*K29*M29</f>
-        <v>1.6</v>
+        <v>2.16</v>
       </c>
       <c r="J29" s="3">
         <f>O29/H29</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K29" s="3">
         <f>O29/L29</f>
         <v>2</v>
       </c>
       <c r="L29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N29" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O29" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R29" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S29" s="9">
         <v>0</v>
       </c>
       <c r="T29" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U29" s="16">
-        <v>4</v>
-      </c>
-      <c r="V29" s="8"/>
-      <c r="W29" t="s">
-        <v>301</v>
+        <v>0</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>272</v>
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>142</v>
       </c>
       <c r="E30" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
@@ -3542,33 +3414,33 @@
       </c>
       <c r="I30" s="3">
         <f>J30*K30*M30</f>
-        <v>1.8</v>
+        <v>3.4708333333333337</v>
       </c>
       <c r="J30" s="3">
         <f>O30/H30</f>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="K30" s="3">
         <f>O30/L30</f>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" s="9">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N30" s="16">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="O30" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P30" s="3">
         <v>0</v>
       </c>
       <c r="Q30" s="9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R30" s="9">
         <v>0</v>
@@ -3582,25 +3454,26 @@
       <c r="U30" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V30" s="8" t="s">
-        <v>269</v>
+      <c r="V30" s="8"/>
+      <c r="W30" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>297</v>
+        <v>165</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="E31" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3">
         <v>3</v>
@@ -3609,15 +3482,15 @@
         <v>141</v>
       </c>
       <c r="H31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="3">
         <f>J31*K31*M31</f>
-        <v>1.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="J31" s="3">
         <f>O31/H31</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K31" s="3">
         <f>O31/L31</f>
@@ -3627,10 +3500,10 @@
         <v>2</v>
       </c>
       <c r="M31" s="9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="N31" s="16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
         <v>4</v>
@@ -3639,27 +3512,28 @@
         <v>0</v>
       </c>
       <c r="Q31" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R31" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S31" s="9">
         <v>0</v>
       </c>
       <c r="T31" s="9">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="U31" s="16">
-        <v>3</v>
-      </c>
-      <c r="V31" t="s">
-        <v>296</v>
+        <v>4</v>
+      </c>
+      <c r="V31" s="8"/>
+      <c r="W31" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>184</v>
@@ -3667,11 +3541,11 @@
       <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D32" t="s">
-        <v>188</v>
+      <c r="D32" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="E32" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
@@ -3680,11 +3554,11 @@
         <v>141</v>
       </c>
       <c r="H32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" s="3">
         <f>J32*K32*M32</f>
-        <v>1.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="J32" s="3">
         <f>O32/H32</f>
@@ -3692,19 +3566,19 @@
       </c>
       <c r="K32" s="3">
         <f>O32/L32</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L32" s="3">
         <v>2</v>
       </c>
       <c r="M32" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N32" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -3716,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T32" s="9">
         <v>0</v>
@@ -3725,49 +3599,152 @@
         <v>78</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>353</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>297</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>342</v>
+        <v>275</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <f>J33*K33*M33</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="J33" s="3">
+        <f>O33/H33</f>
+        <v>0.8</v>
+      </c>
+      <c r="K33" s="3">
+        <f>O33/L33</f>
+        <v>2</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N33" s="16">
+        <v>-3</v>
+      </c>
+      <c r="O33" s="3">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="U33" s="16">
+        <v>3</v>
+      </c>
+      <c r="V33" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>345</v>
+        <v>188</v>
+      </c>
+      <c r="E34" s="3">
+        <v>11</v>
       </c>
       <c r="F34" s="3">
-        <v>4</v>
-      </c>
-      <c r="K34" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3</v>
+      </c>
+      <c r="I34" s="3">
+        <f>J34*K34*M34</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="J34" s="3">
+        <f>O34/H34</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <f>O34/L34</f>
+        <v>1.5</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N34" s="16">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>3</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="V34" s="8" t="s">
-        <v>335</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>340</v>
-      </c>
       <c r="B35" s="3" t="s">
         <v>184</v>
       </c>
@@ -3775,45 +3752,78 @@
         <v>130</v>
       </c>
       <c r="D35" t="s">
+        <v>342</v>
+      </c>
+      <c r="E35" s="3">
+        <v>11</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>334</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
         <v>345</v>
       </c>
-      <c r="F35" s="3">
+      <c r="E37" s="3">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
         <v>4</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="V35" s="8" t="s">
+      <c r="K37" s="3"/>
+      <c r="V37" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" s="3">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="V38" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K37" s="3"/>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K40" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD13 W14:XFD14 A14:C14 H14:L14 O14:P14 A15:XFD15 W16:XFD16 A26:V32 A36:XFD909090 A18:V24 E34:XFD35 A33:C35 E33:V33 W18:XFD33 A17:XFD17">
-    <cfRule type="expression" dxfId="14" priority="19">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25 V25">
-    <cfRule type="expression" dxfId="13" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:V16">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
-    <cfRule type="expression" dxfId="10" priority="1">
+  <conditionalFormatting sqref="A1:XFD999999">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3824,11 +3834,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687D88A5-CB1C-45DA-9298-58CF74D03E3F}">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V21" sqref="V21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3916,7 +3926,7 @@
         <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4526,460 +4536,270 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="V15" t="s">
-        <v>321</v>
-      </c>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <f>J16*K16*M16</f>
-        <v>1.1333333333333333</v>
-      </c>
-      <c r="J16" s="3">
-        <f>O16/H16</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K16" s="3">
-        <f>O16/L16</f>
-        <v>2</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="N16" s="16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>2</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U16" s="16">
-        <v>2</v>
-      </c>
-      <c r="V16" t="s">
-        <v>124</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" t="s">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <f>J17*K17*M17</f>
+      <c r="V17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <f>J19*K19*M19</f>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="J19" s="3">
+        <f>O19/H19</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K19" s="3">
+        <f>O19/L19</f>
+        <v>2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U19" s="16">
+        <v>2</v>
+      </c>
+      <c r="V19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <f>J20*K20*M20</f>
         <v>2.0833333333333335</v>
       </c>
-      <c r="J17" s="3">
-        <f>O17/H17</f>
+      <c r="J20" s="3">
+        <f>O20/H20</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="K17" s="3">
-        <f t="shared" ref="K17:K20" si="7">O17/L17</f>
+      <c r="K20" s="3">
+        <f t="shared" ref="K20:K23" si="7">O20/L20</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="L17" s="3">
-        <v>3</v>
-      </c>
-      <c r="M17" s="9">
+      <c r="L20" s="3">
+        <v>3</v>
+      </c>
+      <c r="M20" s="9">
         <v>0.75</v>
       </c>
-      <c r="N17" s="16">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="N20" s="16">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
         <v>5</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="16" t="s">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>191</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <f>J18*K18*M18</f>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
+        <f>J21*K21*M21</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="3">
-        <f>O18/H18</f>
+      <c r="J21" s="3">
+        <f>O21/H21</f>
         <v>0.5</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K21" s="3">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="L18" s="3">
-        <v>2</v>
-      </c>
-      <c r="M18" s="9">
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="9">
         <v>0.8</v>
       </c>
-      <c r="N18" s="16">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>1</v>
-      </c>
-      <c r="U18" s="16">
-        <v>3</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="N21" s="16">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>1</v>
+      </c>
+      <c r="U21" s="16">
+        <v>3</v>
+      </c>
+      <c r="V21" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="3">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3">
-        <f>J19*K19*M19</f>
-        <v>1.3</v>
-      </c>
-      <c r="J19" s="3">
-        <f>O19/H19</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="N19" s="16">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3">
-        <v>2</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U19" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
-      <c r="I20" s="3">
-        <f>J20*K20*M20</f>
-        <v>2.8</v>
-      </c>
-      <c r="J20" s="3">
-        <f>O20/H20</f>
-        <v>2</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="N20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="O20" s="3">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V20" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="3">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" ref="I21:I23" si="8">J21*K21*M21</f>
-        <v>0.93333333333333324</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" ref="J21:J23" si="9">O21/H21</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" ref="K21:K23" si="10">O21/L21</f>
-        <v>2</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="N21" s="16">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>2</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0</v>
-      </c>
-      <c r="R21" s="9">
-        <v>0</v>
-      </c>
-      <c r="S21" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="T21" s="9">
-        <v>0</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V21" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="E22" s="3">
         <v>7</v>
@@ -4991,290 +4811,335 @@
         <v>141</v>
       </c>
       <c r="H22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="3">
+        <f>J22*K22*M22</f>
+        <v>1.3</v>
+      </c>
+      <c r="J22" s="3">
+        <f>O22/H22</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N22" s="16">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="U22" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <f>J23*K23*M23</f>
+        <v>0.15</v>
+      </c>
+      <c r="J23" s="3">
+        <f>O23/H23</f>
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="N23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" ref="I24:I27" si="8">J24*K24*M24</f>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" ref="J24:J27" si="9">O24/H24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" ref="K24:K27" si="10">O24/L24</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="N24" s="16">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
         <f t="shared" si="8"/>
         <v>0.95</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J25" s="3">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K25" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L22" s="3">
-        <v>3</v>
-      </c>
-      <c r="M22" s="9">
+      <c r="L25" s="3">
+        <v>3</v>
+      </c>
+      <c r="M25" s="9">
         <v>0.95</v>
       </c>
-      <c r="N22" s="16">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
+      <c r="N25" s="16">
+        <v>3</v>
+      </c>
+      <c r="O25" s="3">
+        <v>3</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
         <v>0.1</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R25" s="9">
         <v>0.83</v>
       </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
         <v>0.5</v>
       </c>
-      <c r="U22" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="U25" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>308</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>218</v>
       </c>
-      <c r="E23" s="3">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="E26" s="3">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="8"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J26" s="3">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K26" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="9">
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9">
         <v>0.85</v>
       </c>
-      <c r="N23" s="16">
-        <v>2</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
-        <v>0</v>
-      </c>
-      <c r="S23" s="9">
+      <c r="N26" s="16">
+        <v>2</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
         <v>0.33</v>
       </c>
-      <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="16" t="s">
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V26" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" t="s">
-        <v>343</v>
-      </c>
-      <c r="E24" s="3">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="V24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>291</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="3">
-        <v>9</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="3">
-        <f>J25*K25*M25</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="J25" s="3">
-        <f>O25/H25</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
-        <f>O25/L25</f>
-        <v>1.5</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="N25" s="16">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>3</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U25" s="16">
-        <v>3</v>
-      </c>
-      <c r="V25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="3">
-        <v>9</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="3">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <f>J26*K26*M26</f>
-        <v>2.6133333333333333</v>
-      </c>
-      <c r="J26" s="3">
-        <f>O26/H26</f>
-        <v>1.4</v>
-      </c>
-      <c r="K26" s="3">
-        <f>O26/L26</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="N26" s="16">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>7</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>0</v>
-      </c>
-      <c r="R26" s="9">
-        <v>0</v>
-      </c>
-      <c r="S26" s="9">
-        <v>0</v>
-      </c>
-      <c r="T26" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U26" s="16">
-        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>396</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>183</v>
@@ -5283,49 +5148,49 @@
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>343</v>
       </c>
       <c r="E27" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
-        <f>J27*K27*M27</f>
-        <v>2.5499999999999998</v>
+        <f t="shared" si="8"/>
+        <v>1.8</v>
       </c>
       <c r="J27" s="3">
-        <f>O27/H27</f>
-        <v>1.5</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="K27" s="3">
-        <f>O27/L27</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="L27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" s="9">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="N27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="9">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="R27" s="9">
         <v>0</v>
@@ -5339,206 +5204,91 @@
       <c r="U27" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V27" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>253</v>
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>343</v>
       </c>
       <c r="E28" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="3">
-        <v>3</v>
-      </c>
-      <c r="I28" s="3">
-        <f>J28*K28*M28</f>
-        <v>3.1999999999999997</v>
-      </c>
-      <c r="J28" s="3">
-        <f>O28/H28</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K28" s="3">
-        <f>O28/L28</f>
-        <v>4</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="N28" s="16">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>4</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0</v>
-      </c>
-      <c r="S28" s="9">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="V28" t="s">
-        <v>124</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>257</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="3">
-        <v>9</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
-        <f>J29*K29*M29</f>
-        <v>1.8666666666666665</v>
-      </c>
-      <c r="J29" s="3">
-        <f>O29/H29</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K29" s="3">
-        <f>O29/L29</f>
-        <v>2</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="N29" s="16">
-        <v>-1</v>
-      </c>
-      <c r="O29" s="3">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>0</v>
-      </c>
-      <c r="R29" s="9">
-        <v>0</v>
-      </c>
-      <c r="S29" s="9">
-        <v>0</v>
-      </c>
-      <c r="T29" s="9">
-        <v>0</v>
-      </c>
-      <c r="U29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V29" t="s">
-        <v>266</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E30" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="H30" s="3">
         <v>3</v>
       </c>
       <c r="I30" s="3">
         <f>J30*K30*M30</f>
-        <v>3.7500000000000004</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J30" s="3">
         <f>O30/H30</f>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="K30" s="3">
         <f>O30/L30</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L30" s="3">
         <v>2</v>
       </c>
       <c r="M30" s="9">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N30" s="16">
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="9">
         <v>0</v>
@@ -5547,18 +5297,18 @@
         <v>0</v>
       </c>
       <c r="T30" s="9">
-        <v>0</v>
-      </c>
-      <c r="U30" s="16" t="s">
-        <v>78</v>
+        <v>0.33</v>
+      </c>
+      <c r="U30" s="16">
+        <v>3</v>
       </c>
       <c r="V30" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>183</v>
@@ -5567,43 +5317,43 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E31" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31" s="3">
         <v>3</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>391</v>
+        <v>141</v>
       </c>
       <c r="H31" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I31" s="3">
         <f>J31*K31*M31</f>
-        <v>0.1875</v>
+        <v>2.6133333333333333</v>
       </c>
       <c r="J31" s="3">
         <f>O31/H31</f>
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="K31" s="3">
         <f>O31/L31</f>
-        <v>0.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" s="9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="N31" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P31" s="3">
         <v>0</v>
@@ -5618,30 +5368,27 @@
         <v>0</v>
       </c>
       <c r="T31" s="9">
-        <v>0</v>
-      </c>
-      <c r="U31" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V31" t="s">
-        <v>315</v>
+        <v>0.33</v>
+      </c>
+      <c r="U31" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E32" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
@@ -5654,53 +5401,65 @@
       </c>
       <c r="I32" s="3">
         <f>J32*K32*M32</f>
-        <v>1.8</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J32" s="3">
         <f>O32/H32</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="K32" s="3">
         <f>O32/L32</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32" s="9">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="N32" s="16">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R32" s="9">
         <v>0</v>
       </c>
       <c r="S32" s="9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T32" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U32" s="16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>252</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>130</v>
+        <v>19</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
@@ -5708,58 +5467,106 @@
       <c r="G33" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="H33" s="3">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3">
+        <f>J33*K33*M33</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="J33" s="3">
+        <f>O33/H33</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <f>O33/L33</f>
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V33" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="E34" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H34" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34:I37" si="11">J34*K34*M34</f>
-        <v>4.0500000000000007</v>
+        <f>J34*K34*M34</f>
+        <v>1.8666666666666665</v>
       </c>
       <c r="J34" s="3">
         <f>O34/H34</f>
-        <v>1.8</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" ref="K34:K37" si="12">O34/L34</f>
-        <v>3</v>
+        <f>O34/L34</f>
+        <v>2</v>
       </c>
       <c r="L34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" s="9">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="N34" s="16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="O34" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P34" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="9">
         <v>0</v>
@@ -5771,15 +5578,18 @@
         <v>0</v>
       </c>
       <c r="T34" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="U34" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>183</v>
@@ -5788,13 +5598,13 @@
         <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="E35" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>141</v>
@@ -5803,34 +5613,34 @@
         <v>3</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="11"/>
-        <v>0.31666666666666665</v>
+        <f>J35*K35*M35</f>
+        <v>3.7500000000000004</v>
       </c>
       <c r="J35" s="3">
         <f>O35/H35</f>
-        <v>0.33333333333333331</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>O35/L35</f>
+        <v>2.5</v>
       </c>
       <c r="L35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" s="9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="N35" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="9">
-        <v>0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="R35" s="9">
         <v>0</v>
@@ -5845,60 +5655,60 @@
         <v>78</v>
       </c>
       <c r="V35" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>344</v>
+        <v>191</v>
       </c>
       <c r="E36" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>141</v>
+        <v>388</v>
       </c>
       <c r="H36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="11"/>
-        <v>0.53333333333333333</v>
+        <f>J36*K36*M36</f>
+        <v>0.1875</v>
       </c>
       <c r="J36" s="3">
         <f>O36/H36</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>O36/L36</f>
+        <v>0.5</v>
       </c>
       <c r="L36" s="3">
         <v>2</v>
       </c>
       <c r="M36" s="9">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="N36" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="9">
         <v>0</v>
@@ -5916,12 +5726,12 @@
         <v>78</v>
       </c>
       <c r="V36" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>183</v>
@@ -5930,40 +5740,40 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>356</v>
+        <v>191</v>
       </c>
       <c r="E37" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>391</v>
+        <v>141</v>
       </c>
       <c r="H37" s="3">
         <v>4</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="11"/>
-        <v>0.73125000000000007</v>
+        <f>J37*K37*M37</f>
+        <v>1.8</v>
       </c>
       <c r="J37" s="3">
         <f>O37/H37</f>
         <v>0.75</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
+        <f>O37/L37</f>
+        <v>3</v>
       </c>
       <c r="L37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="9">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="N37" s="16">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O37" s="3">
         <v>3</v>
@@ -5972,53 +5782,494 @@
         <v>0</v>
       </c>
       <c r="Q37" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R37" s="9">
         <v>0</v>
       </c>
       <c r="S37" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="T37" s="9">
         <v>0.33</v>
       </c>
-      <c r="T37" s="9">
-        <v>0</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V37" t="s">
-        <v>357</v>
+      <c r="U37" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="E38" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="H38" s="3">
+        <v>3</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" ref="I38" si="11">J38*K38*M38</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" ref="J38" si="12">O38/H38</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" ref="K38" si="13">O38/L38</f>
+        <v>2</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N38" s="16">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <v>2</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>-0.05</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+      <c r="U38" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="V38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="3">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>251</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" ref="I41:I45" si="14">J41*K41*M41</f>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="J41" s="3">
+        <f>O41/H41</f>
+        <v>1.8</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" ref="K41:K45" si="15">O41/L41</f>
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="N41" s="16">
+        <v>-3</v>
+      </c>
+      <c r="O41" s="3">
+        <v>9</v>
+      </c>
+      <c r="P41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="U41" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>283</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
+        <v>308</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="14"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="J42" s="3">
+        <f>O42/H42</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="N42" s="16">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0</v>
+      </c>
+      <c r="T42" s="9">
+        <v>0</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>344</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="14"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="J43" s="3">
+        <f>O43/H43</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N43" s="16">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>2</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>0</v>
+      </c>
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
+      <c r="S43" s="9">
+        <v>0</v>
+      </c>
+      <c r="T43" s="9">
+        <v>0</v>
+      </c>
+      <c r="U43" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>355</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="14"/>
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="J44" s="3">
+        <f>O44/H44</f>
+        <v>0.75</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N44" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="T44" s="9">
+        <v>0</v>
+      </c>
+      <c r="U44" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>390</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>395</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <f>O45/H45</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="N45" s="16">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R45" s="9">
+        <v>0</v>
+      </c>
+      <c r="S45" s="9">
+        <v>0</v>
+      </c>
+      <c r="T45" s="9">
+        <v>0</v>
+      </c>
+      <c r="U45" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>317</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>344</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="V46" t="s">
         <v>336</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1000000">
-    <cfRule type="expression" dxfId="9" priority="21">
+  <conditionalFormatting sqref="A1:XFD999999">
+    <cfRule type="expression" dxfId="10" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6028,11 +6279,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7DBCF5-5AAC-4F6F-A5D2-F2CF7C627D4D}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6120,7 +6371,7 @@
         <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -6298,11 +6549,11 @@
         <v>0.8</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J24" si="1">O8/H8</f>
+        <f t="shared" ref="J8:J27" si="1">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" ref="K8:K24" si="2">O8/L8</f>
+        <f t="shared" ref="K8:K27" si="2">O8/L8</f>
         <v>1</v>
       </c>
       <c r="L8" s="3">
@@ -6525,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="9">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="T11" s="9">
         <v>0.5</v>
@@ -6557,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" ref="I12:I21" si="3">J12*K12*M12</f>
+        <f t="shared" ref="I12:I23" si="3">J12*K12*M12</f>
         <v>0.75</v>
       </c>
       <c r="J12" s="3">
@@ -6804,688 +7055,604 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>323</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="V16" t="s">
-        <v>324</v>
-      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="P16" s="16"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D17"/>
       <c r="E17" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="V17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K19" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L17" s="3">
-        <v>2</v>
-      </c>
-      <c r="M17" s="9">
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="9">
         <v>0.75</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N19" s="16">
         <v>-1</v>
       </c>
-      <c r="O17" s="3">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
+      <c r="O19" s="3">
+        <v>2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
         <v>0.1</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R19" s="9">
         <v>0.67</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S19" s="9">
         <v>0.67</v>
       </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="16" t="s">
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E20" s="3">
         <v>9</v>
       </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J20" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K20" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="3">
-        <v>2</v>
-      </c>
-      <c r="M18" s="9">
-        <v>2</v>
-      </c>
-      <c r="N18" s="16">
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
+      <c r="M20" s="9">
+        <v>2</v>
+      </c>
+      <c r="N20" s="16">
         <v>-7</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0</v>
-      </c>
-      <c r="U18" s="16" t="s">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E21" s="3">
         <v>6</v>
       </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="3"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J21" s="3">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K21" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="9">
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9">
         <v>0.85</v>
       </c>
-      <c r="N19" s="16">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
+      <c r="N21" s="16">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
         <v>0.05</v>
       </c>
-      <c r="R19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
         <v>0.75</v>
       </c>
-      <c r="U19" s="16">
+      <c r="U21" s="16">
         <v>5</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="3">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="3">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <f t="shared" si="3"/>
         <v>0.56666666666666665</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J22" s="3">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L20" s="3">
-        <v>2</v>
-      </c>
-      <c r="M20" s="9">
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="M22" s="9">
         <v>0.85</v>
       </c>
-      <c r="N20" s="16">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>2</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
-      </c>
-      <c r="U20" s="16" t="s">
+      <c r="N22" s="16">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V22" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E23" s="3">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="3">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J23" s="3">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K23" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
-      <c r="M21" s="9">
+      <c r="L23" s="3">
+        <v>2</v>
+      </c>
+      <c r="M23" s="9">
         <v>1.05</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N23" s="16">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
-        <v>2</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0</v>
-      </c>
-      <c r="R21" s="9">
-        <v>0</v>
-      </c>
-      <c r="S21" s="9">
+      <c r="O23" s="3">
+        <v>2</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
         <v>0.67</v>
       </c>
-      <c r="T21" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="U21" s="16">
+      <c r="T23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U23" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>256</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E24" s="3">
         <v>7</v>
       </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H24" s="3">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <f t="shared" ref="I22:I24" si="4">J22*K22*M22</f>
+      <c r="I24" s="3">
+        <f t="shared" ref="I24:I27" si="4">J24*K24*M24</f>
         <v>0.84375</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J24" s="3">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K24" s="3">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="L22" s="3">
-        <v>2</v>
-      </c>
-      <c r="M22" s="9">
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="9">
         <v>0.75</v>
       </c>
-      <c r="N22" s="16">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3</v>
-      </c>
-      <c r="P22" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <v>0</v>
-      </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9">
+      <c r="N24" s="16">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+      <c r="P24" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
         <v>0.67</v>
       </c>
-      <c r="U22" s="16">
-        <v>3</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="U24" s="16">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D25" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E25" s="3">
         <v>8</v>
       </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
         <f t="shared" si="4"/>
         <v>1.8666666666666665</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J25" s="3">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K25" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L23" s="3">
-        <v>2</v>
-      </c>
-      <c r="M23" s="9">
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+      <c r="M25" s="9">
         <v>0.7</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N25" s="16">
         <v>-2</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O25" s="3">
         <v>4</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
-        <v>0</v>
-      </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="16" t="s">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V25" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>351</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D26" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="3">
         <v>7</v>
       </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J26" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K26" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="9">
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9">
         <v>0.75</v>
       </c>
-      <c r="N24" s="16">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
+      <c r="N26" s="16">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
         <v>0.05</v>
       </c>
-      <c r="R24" s="9">
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
         <v>0.33</v>
       </c>
-      <c r="U24" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E25" s="3">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="V25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E26" s="3">
-        <v>13</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="3">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" ref="I26:I28" si="5">J26*K26*M26</f>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J26" s="3">
-        <f>O26/H26</f>
-        <v>1.2</v>
-      </c>
-      <c r="K26" s="3">
-        <f>O26/L26</f>
-        <v>2</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="N26" s="16">
-        <v>-6</v>
-      </c>
-      <c r="O26" s="3">
-        <v>6</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>0</v>
-      </c>
-      <c r="R26" s="9">
-        <v>0</v>
-      </c>
-      <c r="S26" s="9">
-        <v>0</v>
-      </c>
-      <c r="T26" s="9">
-        <v>1</v>
-      </c>
       <c r="U26" s="16">
-        <v>5</v>
-      </c>
-      <c r="V26" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>182</v>
@@ -7493,318 +7660,572 @@
       <c r="C27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="4"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E28" s="3">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="V28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" s="3">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="3">
+        <v>5</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" ref="I30:I32" si="5">J30*K30*M30</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J30" s="3">
+        <f>O30/H30</f>
+        <v>1.2</v>
+      </c>
+      <c r="K30" s="3">
+        <f>O30/L30</f>
+        <v>2</v>
+      </c>
+      <c r="L30" s="3">
+        <v>3</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="N30" s="16">
+        <v>-6</v>
+      </c>
+      <c r="O30" s="3">
+        <v>6</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>1</v>
+      </c>
+      <c r="U30" s="16">
+        <v>5</v>
+      </c>
+      <c r="V30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E31" s="3">
         <v>11</v>
       </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H27" s="3">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="H31" s="3">
+        <v>3</v>
+      </c>
+      <c r="I31" s="3">
         <f t="shared" si="5"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="J27" s="3">
-        <f>O27/H27</f>
+      <c r="J31" s="3">
+        <f>O31/H31</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K27" s="3">
-        <f>O27/L27</f>
+      <c r="K31" s="3">
+        <f>O31/L31</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="L27" s="3">
-        <v>3</v>
-      </c>
-      <c r="M27" s="9">
+      <c r="L31" s="3">
+        <v>3</v>
+      </c>
+      <c r="M31" s="9">
         <v>0.9</v>
       </c>
-      <c r="N27" s="16">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="N31" s="16">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
         <v>4</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
         <v>0.1</v>
       </c>
-      <c r="R27" s="9">
-        <v>0</v>
-      </c>
-      <c r="S27" s="9">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9">
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
         <v>0.75</v>
       </c>
-      <c r="U27" s="16">
-        <v>3</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="U31" s="16">
+        <v>3</v>
+      </c>
+      <c r="V31" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>278</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E28" s="3">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <f>O28/H28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <f>O28/L28</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="9">
-        <v>2</v>
-      </c>
-      <c r="N28" s="16">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0</v>
-      </c>
-      <c r="S28" s="9">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>288</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="3">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="3">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3">
-        <f>J29*K29*M29</f>
-        <v>0.85</v>
-      </c>
-      <c r="J29" s="3">
-        <f>O29/H29</f>
-        <v>0.5</v>
-      </c>
-      <c r="K29" s="3">
-        <f>O29/L29</f>
-        <v>2</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="N29" s="16">
-        <v>-1</v>
-      </c>
-      <c r="O29" s="3">
-        <v>2</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="R29" s="9">
-        <v>0</v>
-      </c>
-      <c r="S29" s="9">
-        <v>0</v>
-      </c>
-      <c r="T29" s="9">
-        <v>0</v>
-      </c>
-      <c r="U29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V29" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>361</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E30" s="3">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="3">
-        <f>J30*K30*M30</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="J30" s="3">
-        <f>O30/H30</f>
-        <v>0.5</v>
-      </c>
-      <c r="K30" s="3">
-        <f>O30/L30</f>
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="N30" s="16">
-        <v>-2</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="R30" s="9">
-        <v>0</v>
-      </c>
-      <c r="S30" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="T30" s="9">
-        <v>0</v>
-      </c>
-      <c r="U30" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="3">
-        <v>3</v>
-      </c>
-      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="3">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <f>O32/H32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f>O32/L32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="9">
+        <v>2</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <f>J33*K33*M33</f>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="J33" s="3">
+        <f>O33/H33</f>
+        <v>0.25</v>
+      </c>
+      <c r="K33" s="3">
+        <f>O33/L33</f>
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="N33" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>359</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" s="3">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+      <c r="I34" s="3">
+        <f>J34*K34*M34</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J34" s="3">
+        <f>O34/H34</f>
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="3">
+        <f>O34/L34</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="N34" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>333</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E35" s="3">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <f>J35*K35*M35</f>
+        <v>2.7</v>
+      </c>
+      <c r="J35" s="3">
+        <f>O35/H35</f>
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
+        <f>O35/L35</f>
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>3</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N35" s="16">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E36" s="3">
+        <v>11</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M37" s="9"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>402</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
         <v>347</v>
       </c>
-      <c r="F32" s="3">
+      <c r="E38" s="3">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3">
         <v>4</v>
       </c>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="L32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="V32" t="s">
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="L38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="V38" t="s">
         <v>337</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1000001">
-    <cfRule type="expression" dxfId="8" priority="12">
+  <conditionalFormatting sqref="A39:XFD1000006 A37:U37 A1:XFD36 W37:XFD38">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:V38">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7815,11 +8236,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C332C6-0F15-4384-8259-DE52E9979FA5}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7908,7 +8329,7 @@
         <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -8078,7 +8499,7 @@
         <v>0.75</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J23" si="1">O8/H8</f>
+        <f t="shared" ref="J8:J24" si="1">O8/H8</f>
         <v>1</v>
       </c>
       <c r="K8" s="3">
@@ -8248,7 +8669,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>181</v>
@@ -8311,7 +8732,7 @@
         <v>78</v>
       </c>
       <c r="V11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -8512,12 +8933,12 @@
         <v>3</v>
       </c>
       <c r="V14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>181</v>
@@ -8611,88 +9032,31 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" ref="I17:I23" si="6">J17*K17*M17</f>
-        <v>0.9</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <f>O17/L17</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="N17" s="16">
-        <v>2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="R17" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="U17" s="16">
-        <v>2</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -8704,105 +9068,102 @@
         <v>3</v>
       </c>
       <c r="I18" s="3">
+        <f t="shared" ref="I18:I24" si="6">J18*K18*M18</f>
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <f>O18/L18</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N18" s="16">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="U18" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="6"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <f>O18/L18</f>
-        <v>1.5</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="N18" s="16">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U18" s="16">
-        <v>2</v>
-      </c>
-      <c r="V18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3">
         <f>O19/L19</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="9">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="N19" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
@@ -8811,27 +9172,30 @@
         <v>0</v>
       </c>
       <c r="T19" s="9">
-        <v>0</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>78</v>
+        <v>0.75</v>
+      </c>
+      <c r="U19" s="16">
+        <v>2</v>
+      </c>
+      <c r="V19" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="E20" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -8861,22 +9225,22 @@
         <v>2</v>
       </c>
       <c r="N20" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R20" s="9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S20" s="9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="T20" s="9">
         <v>0</v>
@@ -8884,25 +9248,22 @@
       <c r="U20" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V20" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>366</v>
+        <v>189</v>
       </c>
       <c r="E21" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -8915,27 +9276,27 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="6"/>
-        <v>1.4222222222222223</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" ref="K21" si="7">O21/L21</f>
-        <v>1.3333333333333333</v>
+        <f>O21/L21</f>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" s="9">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="N21" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O21" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -8944,33 +9305,36 @@
         <v>0</v>
       </c>
       <c r="R21" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S21" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T21" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="U21" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="E22" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -8983,33 +9347,33 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4222222222222223</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" ref="K22:K23" si="8">O22/L22</f>
-        <v>0</v>
+        <f t="shared" ref="K22" si="7">O22/L22</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M22" s="9">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="N22" s="16">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="R22" s="9">
         <v>0</v>
@@ -9018,18 +9382,15 @@
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <v>0</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s">
-        <v>223</v>
+        <v>0.5</v>
+      </c>
+      <c r="U22" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>181</v>
@@ -9038,10 +9399,10 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="E23" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
@@ -9054,133 +9415,133 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="6"/>
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
+        <f t="shared" ref="K23:K24" si="8">O23/L23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <v>2</v>
+      </c>
+      <c r="N23" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>-0.05</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="6"/>
+        <v>1.125</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
         <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="L23" s="3">
-        <v>2</v>
-      </c>
-      <c r="M23" s="9">
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="9">
         <v>0.75</v>
       </c>
-      <c r="N23" s="16">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
+      <c r="N24" s="16">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
         <v>0.83</v>
       </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="16" t="s">
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V24" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" t="s">
-        <v>386</v>
-      </c>
-      <c r="E24" s="3">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <f>J24*K24*M24</f>
-        <v>0.25</v>
-      </c>
-      <c r="J24" s="3">
-        <f>O24/H24</f>
-        <v>0.25</v>
-      </c>
-      <c r="K24" s="3">
-        <f>O24/L24</f>
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="9">
-        <v>1</v>
-      </c>
-      <c r="N24" s="16">
-        <v>2</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="U24" s="16">
-        <v>3</v>
-      </c>
-      <c r="V24" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="E25" s="3">
         <v>7</v>
@@ -9191,275 +9552,215 @@
       <c r="G25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="H25" s="3">
+        <v>4</v>
+      </c>
+      <c r="I25" s="3">
+        <f>J25*K25*M25</f>
+        <v>0.25</v>
+      </c>
+      <c r="J25" s="3">
+        <f>O25/H25</f>
+        <v>0.25</v>
+      </c>
+      <c r="K25" s="3">
+        <f>O25/L25</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1</v>
+      </c>
+      <c r="N25" s="16">
+        <v>2</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="U25" s="16">
+        <v>3</v>
+      </c>
       <c r="V25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>331</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>348</v>
       </c>
       <c r="E26" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="V26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="3">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="3">
         <v>4</v>
       </c>
-      <c r="I26" s="3">
-        <f t="shared" ref="I26:I32" si="9">J26*K26*M26</f>
+      <c r="I28" s="3">
+        <f t="shared" ref="I28:I34" si="9">J28*K28*M28</f>
         <v>1.666666666666667</v>
       </c>
-      <c r="J26" s="3">
-        <f t="shared" ref="J26:J32" si="10">O26/H26</f>
+      <c r="J28" s="3">
+        <f t="shared" ref="J28:J34" si="10">O28/H28</f>
         <v>1.25</v>
       </c>
-      <c r="K26" s="3">
-        <f t="shared" ref="K26:K32" si="11">O26/L26</f>
+      <c r="K28" s="3">
+        <f t="shared" ref="K28:K34" si="11">O28/L28</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="L26" s="3">
-        <v>3</v>
-      </c>
-      <c r="M26" s="9">
+      <c r="L28" s="3">
+        <v>3</v>
+      </c>
+      <c r="M28" s="9">
         <v>0.8</v>
       </c>
-      <c r="N26" s="16">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="N28" s="16">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
         <v>5</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
         <v>0.05</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R28" s="9">
         <v>0.5</v>
       </c>
-      <c r="S26" s="9">
-        <v>0</v>
-      </c>
-      <c r="T26" s="9">
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
         <v>0.25</v>
       </c>
-      <c r="U26" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="U28" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>220</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E29" s="3">
         <v>9</v>
       </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H29" s="3">
         <v>4</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I29" s="3">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="J27" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="N27" s="16">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>0</v>
-      </c>
-      <c r="R27" s="9">
-        <v>0</v>
-      </c>
-      <c r="S27" s="9">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="U27" s="16">
-        <v>5</v>
-      </c>
-      <c r="V27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="3">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="9">
-        <v>2</v>
-      </c>
-      <c r="N28" s="16">
-        <v>-3</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0</v>
-      </c>
-      <c r="S28" s="9">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>387</v>
-      </c>
-      <c r="E29" s="3">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" s="9">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="N29" s="16">
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -9474,18 +9775,18 @@
         <v>0</v>
       </c>
       <c r="T29" s="9">
-        <v>0</v>
-      </c>
-      <c r="U29" s="16" t="s">
-        <v>78</v>
+        <v>0.75</v>
+      </c>
+      <c r="U29" s="16">
+        <v>5</v>
       </c>
       <c r="V29" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>181</v>
@@ -9497,7 +9798,7 @@
         <v>222</v>
       </c>
       <c r="E30" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
@@ -9506,7 +9807,7 @@
         <v>141</v>
       </c>
       <c r="H30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="9"/>
@@ -9527,7 +9828,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="16">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="O30" s="3">
         <v>0</v>
@@ -9536,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R30" s="9">
         <v>0</v>
@@ -9547,28 +9848,28 @@
       <c r="T30" s="9">
         <v>0</v>
       </c>
-      <c r="U30" s="17" t="s">
+      <c r="U30" s="16" t="s">
         <v>78</v>
       </c>
       <c r="V30" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>385</v>
       </c>
       <c r="E31" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3">
         <v>3</v>
@@ -9577,31 +9878,31 @@
         <v>141</v>
       </c>
       <c r="H31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="9"/>
-        <v>1.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="10"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="3">
         <v>1</v>
       </c>
       <c r="M31" s="9">
-        <v>0.85</v>
+        <v>2</v>
       </c>
       <c r="N31" s="16">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="3">
         <v>0</v>
@@ -9616,18 +9917,18 @@
         <v>0</v>
       </c>
       <c r="T31" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="U31" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U31" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="V31" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>258</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>181</v>
@@ -9636,7 +9937,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="E32" s="3">
         <v>11</v>
@@ -9648,31 +9949,31 @@
         <v>141</v>
       </c>
       <c r="H32" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="9"/>
-        <v>0.16250000000000001</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="9">
-        <v>0.65</v>
+        <v>2</v>
       </c>
       <c r="N32" s="16">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="O32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -9689,30 +9990,87 @@
       <c r="T32" s="9">
         <v>0</v>
       </c>
-      <c r="U32" s="16" t="s">
+      <c r="U32" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V32" t="s">
-        <v>384</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>290</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>350</v>
+        <v>185</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="9"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="10"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="N33" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U33" s="16">
+        <v>3</v>
+      </c>
+      <c r="V33" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>181</v>
@@ -9721,31 +10079,31 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="E34" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H34" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="3">
-        <f>J34*K34*M34</f>
-        <v>1.3</v>
+        <f t="shared" si="9"/>
+        <v>0.16250000000000001</v>
       </c>
       <c r="J34" s="3">
-        <f>O34/H34</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="K34" s="3">
-        <f>O34/L34</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>0.5</v>
       </c>
       <c r="L34" s="3">
         <v>2</v>
@@ -9754,72 +10112,167 @@
         <v>0.65</v>
       </c>
       <c r="N34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>350</v>
+      </c>
+      <c r="E35" s="3">
+        <v>11</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="3">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3">
         <v>4</v>
       </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>0</v>
-      </c>
-      <c r="R34" s="9">
-        <v>0</v>
-      </c>
-      <c r="S34" s="9">
-        <v>0</v>
-      </c>
-      <c r="T34" s="9">
+      <c r="G37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4</v>
+      </c>
+      <c r="I37" s="3">
+        <f>J37*K37*M37</f>
+        <v>1.3</v>
+      </c>
+      <c r="J37" s="3">
+        <f>O37/H37</f>
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <f>O37/L37</f>
+        <v>2</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="N37" s="16">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>4</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
         <v>0.83</v>
       </c>
-      <c r="U34" s="16">
+      <c r="U37" s="16">
         <v>6</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V37" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="9"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="9"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>332</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" t="s">
         <v>349</v>
       </c>
-      <c r="F36" s="3">
+      <c r="E39" s="3">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3">
         <v>4</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="V36" t="s">
+      <c r="K39" s="3"/>
+      <c r="V39" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K37" s="3"/>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K40" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD14 A15:U15 W15:XFD15 A16:XFD16 A17:U17 W17:XFD17 A18:XFD18 A19:U19 W19:XFD19 A20:XFD20 A21:U21 W21:XFD21 A22:XFD1000001">
-    <cfRule type="expression" dxfId="7" priority="16">
+  <conditionalFormatting sqref="A1:XFD999999">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9833,7 +10286,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10161,7 +10614,7 @@
     </row>
     <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>228</v>
@@ -10179,12 +10632,12 @@
         <v>141</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>228</v>
@@ -10202,7 +10655,7 @@
         <v>141</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -10287,7 +10740,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>233</v>
@@ -10327,7 +10780,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>234</v>
@@ -10345,7 +10798,7 @@
         <v>141</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M18" s="9"/>
       <c r="Q18" s="9"/>
@@ -10355,7 +10808,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>234</v>
@@ -10379,7 +10832,7 @@
         <v>261</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>135</v>
@@ -10387,24 +10840,24 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>135</v>
@@ -10412,7 +10865,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>22</v>
@@ -10420,10 +10873,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>135</v>
@@ -10431,10 +10884,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>22</v>
@@ -10442,7 +10895,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>135</v>
@@ -10450,7 +10903,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>22</v>
@@ -10458,7 +10911,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>135</v>
@@ -10466,7 +10919,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>22</v>
@@ -10474,7 +10927,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:XFD99999 I19:XFD19 A1:XFD18 A19">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10780,7 +11233,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12661,19 +13114,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
